--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-23T14:00:00</t>
+          <t>2025-11-24T19:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897806</v>
+        <v>897811</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897806.html</t>
+          <t>https://text.khl.ru/text/897811.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.176471</v>
+        <v>3.816985</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1.117647</v>
       </c>
       <c r="I2" t="n">
-        <v>4.588235</v>
+        <v>2.877774</v>
       </c>
       <c r="J2" t="n">
-        <v>2.498373</v>
+        <v>5.647059</v>
       </c>
       <c r="K2" t="n">
-        <v>1.837422</v>
+        <v>4.732022</v>
       </c>
       <c r="L2" t="n">
-        <v>2.794118</v>
+        <v>1.997711</v>
       </c>
       <c r="M2" t="n">
-        <v>2.176471</v>
+        <v>4.934632</v>
       </c>
       <c r="N2" t="n">
-        <v>23.371129</v>
+        <v>35.165054</v>
       </c>
       <c r="O2" t="n">
-        <v>24.835423</v>
+        <v>20.258009</v>
       </c>
       <c r="P2" t="n">
-        <v>48.206552</v>
+        <v>55.423063</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>0.067386</v>
       </c>
       <c r="R2" t="n">
         <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.244569</v>
+        <v>0.79889</v>
       </c>
       <c r="T2" t="n">
-        <v>0.175076</v>
+        <v>0.092067</v>
       </c>
       <c r="U2" t="n">
-        <v>0.58019</v>
+        <v>0.099583</v>
       </c>
       <c r="V2" t="n">
-        <v>0.320591</v>
+        <v>0.096988</v>
       </c>
       <c r="W2" t="n">
-        <v>0.679244</v>
+        <v>0.893551</v>
       </c>
       <c r="X2" t="n">
-        <v>0.507332</v>
+        <v>0.199104</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.492504</v>
+        <v>0.791435</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.680311</v>
+        <v>0.336547</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.319524</v>
+        <v>0.653992</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.813837</v>
+        <v>0.490706</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.185998</v>
+        <v>0.499833</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.902185</v>
+        <v>0.638913</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09765</v>
+        <v>0.351627</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5482050000000001</v>
+        <v>0.949509</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.451795</v>
+        <v>0.050491</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.279419</v>
+        <v>0.8508869999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.720581</v>
+        <v>0.149113</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.767918</v>
+        <v>0.593374</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.232082</v>
+        <v>0.406626</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.529143</v>
+        <v>0.322704</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.470857</v>
+        <v>0.677296</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.609905</v>
+        <v>0.945669</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.880381</v>
+        <v>0.321248</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-23T15:00:00</t>
+          <t>2025-11-24T19:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897805</v>
+        <v>897809</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.531097</v>
+        <v>1.983158</v>
       </c>
       <c r="H3" t="n">
-        <v>5.375</v>
+        <v>3.411544</v>
       </c>
       <c r="I3" t="n">
-        <v>3.548304</v>
+        <v>3.07998</v>
       </c>
       <c r="J3" t="n">
-        <v>1.333333</v>
+        <v>4.220485</v>
       </c>
       <c r="K3" t="n">
-        <v>1.432215</v>
+        <v>3.101821</v>
       </c>
       <c r="L3" t="n">
-        <v>4.461652</v>
+        <v>3.245762</v>
       </c>
       <c r="M3" t="n">
-        <v>6.906097</v>
+        <v>5.394701</v>
       </c>
       <c r="N3" t="n">
-        <v>24.391571</v>
+        <v>29.463809</v>
       </c>
       <c r="O3" t="n">
-        <v>38.920941</v>
+        <v>33.087107</v>
       </c>
       <c r="P3" t="n">
-        <v>63.312512</v>
+        <v>62.550916</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.183845</v>
+        <v>-0.105359</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.178929</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06389499999999999</v>
+        <v>0.396516</v>
       </c>
       <c r="T3" t="n">
-        <v>0.078915</v>
+        <v>0.161561</v>
       </c>
       <c r="U3" t="n">
-        <v>0.850911</v>
+        <v>0.44098</v>
       </c>
       <c r="V3" t="n">
-        <v>0.160929</v>
+        <v>0.122777</v>
       </c>
       <c r="W3" t="n">
-        <v>0.832793</v>
+        <v>0.8762799999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>0.299514</v>
+        <v>0.241218</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.694208</v>
+        <v>0.757839</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.462874</v>
+        <v>0.391581</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.530847</v>
+        <v>0.607476</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.623345</v>
+        <v>0.550654</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.370377</v>
+        <v>0.448403</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.758458</v>
+        <v>0.694902</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.235263</v>
+        <v>0.304155</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.419237</v>
+        <v>0.8155520000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.580763</v>
+        <v>0.184448</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.17434</v>
+        <v>0.599231</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.8256599999999999</v>
+        <v>0.400769</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.936955</v>
+        <v>0.8346749999999999</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.063045</v>
+        <v>0.165325</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.822062</v>
+        <v>0.629565</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.177938</v>
+        <v>0.370435</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.267423</v>
+        <v>0.709696</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.969828</v>
+        <v>0.747436</v>
       </c>
     </row>
     <row r="4">
@@ -913,264 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00</t>
+          <t>2025-11-24T19:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897807</v>
+        <v>897810</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.920185</v>
+        <v>4.615385</v>
       </c>
       <c r="H4" t="n">
-        <v>4.269231</v>
+        <v>2.109924</v>
       </c>
       <c r="I4" t="n">
-        <v>3.315999</v>
+        <v>1.115385</v>
       </c>
       <c r="J4" t="n">
-        <v>3.209688</v>
+        <v>1.63253</v>
       </c>
       <c r="K4" t="n">
-        <v>3.564936</v>
+        <v>3.123958</v>
       </c>
       <c r="L4" t="n">
-        <v>3.792615</v>
+        <v>1.612654</v>
       </c>
       <c r="M4" t="n">
-        <v>8.189416</v>
+        <v>6.725309</v>
       </c>
       <c r="N4" t="n">
-        <v>30.116644</v>
+        <v>34.357697</v>
       </c>
       <c r="O4" t="n">
-        <v>40.303084</v>
+        <v>28.798769</v>
       </c>
       <c r="P4" t="n">
-        <v>70.41972699999999</v>
+        <v>63.156466</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.122691</v>
+        <v>0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2</v>
+        <v>-0.013181</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3913</v>
+        <v>0.676504</v>
       </c>
       <c r="T4" t="n">
-        <v>0.149311</v>
+        <v>0.151808</v>
       </c>
       <c r="U4" t="n">
-        <v>0.456313</v>
+        <v>0.171278</v>
       </c>
       <c r="V4" t="n">
-        <v>0.064928</v>
+        <v>0.30396</v>
       </c>
       <c r="W4" t="n">
-        <v>0.931996</v>
+        <v>0.695631</v>
       </c>
       <c r="X4" t="n">
-        <v>0.142799</v>
+        <v>0.487857</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.854125</v>
+        <v>0.511733</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.257388</v>
+        <v>0.662067</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.739536</v>
+        <v>0.337523</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.397903</v>
+        <v>0.7995949999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.599021</v>
+        <v>0.199996</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5455950000000001</v>
+        <v>0.8926539999999999</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.451329</v>
+        <v>0.106936</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.870818</v>
+        <v>0.818617</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.129182</v>
+        <v>0.181383</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6909960000000001</v>
+        <v>0.604001</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.309004</v>
+        <v>0.395999</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.891991</v>
+        <v>0.479147</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.108009</v>
+        <v>0.520853</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.729908</v>
+        <v>0.219917</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.270092</v>
+        <v>0.780083</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.683723</v>
+        <v>0.924297</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.740144</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-23T17:00:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Лада</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897808</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897808.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.040247</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.274787</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.043024</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.710987</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.375617</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.158906</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.315034</v>
-      </c>
-      <c r="N5" t="n">
-        <v>29.392947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>25.224363</v>
-      </c>
-      <c r="P5" t="n">
-        <v>54.617309</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.127967</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.013598</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6165389999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.153889</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.22879</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.197818</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.801401</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.352164</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.647054</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.523011</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.476207</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.680604</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.318615</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.805204</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.194015</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.850367</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.149633</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.655533</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.344467</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.6353</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.366248</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.633752</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.881422</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.556226</v>
+        <v>0.509023</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-24T19:00:00</t>
+          <t>2025-11-25T19:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897811</v>
+        <v>897814</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897811.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.816985</v>
+        <v>1.138889</v>
       </c>
       <c r="H2" t="n">
-        <v>1.117647</v>
+        <v>5.538462</v>
       </c>
       <c r="I2" t="n">
-        <v>2.877774</v>
+        <v>3.91689</v>
       </c>
       <c r="J2" t="n">
-        <v>5.647059</v>
+        <v>1.307692</v>
       </c>
       <c r="K2" t="n">
-        <v>4.732022</v>
+        <v>1.223291</v>
       </c>
       <c r="L2" t="n">
-        <v>1.997711</v>
+        <v>4.727676</v>
       </c>
       <c r="M2" t="n">
-        <v>4.934632</v>
+        <v>6.67735</v>
       </c>
       <c r="N2" t="n">
-        <v>35.165054</v>
+        <v>23.62224</v>
       </c>
       <c r="O2" t="n">
-        <v>20.258009</v>
+        <v>40.878477</v>
       </c>
       <c r="P2" t="n">
-        <v>55.423063</v>
+        <v>64.50071699999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.067386</v>
+        <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.79889</v>
+        <v>0.040577</v>
       </c>
       <c r="T2" t="n">
-        <v>0.092067</v>
+        <v>0.059853</v>
       </c>
       <c r="U2" t="n">
-        <v>0.099583</v>
+        <v>0.890176</v>
       </c>
       <c r="V2" t="n">
-        <v>0.096988</v>
+        <v>0.155633</v>
       </c>
       <c r="W2" t="n">
-        <v>0.893551</v>
+        <v>0.834974</v>
       </c>
       <c r="X2" t="n">
-        <v>0.199104</v>
+        <v>0.291673</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.791435</v>
+        <v>0.6989340000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.336547</v>
+        <v>0.453587</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.653992</v>
+        <v>0.5370200000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.490706</v>
+        <v>0.614178</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.499833</v>
+        <v>0.376429</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.638913</v>
+        <v>0.750703</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.351627</v>
+        <v>0.239904</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.949509</v>
+        <v>0.345774</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.050491</v>
+        <v>0.654226</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8508869999999999</v>
+        <v>0.125602</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.149113</v>
+        <v>0.874398</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.593374</v>
+        <v>0.949327</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.406626</v>
+        <v>0.050673</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.322704</v>
+        <v>0.850458</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.677296</v>
+        <v>0.149542</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.945669</v>
+        <v>0.205009</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.321248</v>
+        <v>0.977089</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00</t>
+          <t>2025-11-25T19:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897809</v>
+        <v>897812</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.983158</v>
+        <v>4.588235</v>
       </c>
       <c r="H3" t="n">
-        <v>3.411544</v>
+        <v>3.665934</v>
       </c>
       <c r="I3" t="n">
-        <v>3.07998</v>
+        <v>4.852941</v>
       </c>
       <c r="J3" t="n">
-        <v>4.220485</v>
+        <v>2.788167</v>
       </c>
       <c r="K3" t="n">
-        <v>3.101821</v>
+        <v>3.688201</v>
       </c>
       <c r="L3" t="n">
-        <v>3.245762</v>
+        <v>4.259438</v>
       </c>
       <c r="M3" t="n">
-        <v>5.394701</v>
+        <v>8.254168999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>29.463809</v>
+        <v>36.153363</v>
       </c>
       <c r="O3" t="n">
-        <v>33.087107</v>
+        <v>34.978634</v>
       </c>
       <c r="P3" t="n">
-        <v>62.550916</v>
+        <v>71.131997</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.105359</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.178929</v>
+        <v>0.113231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.396516</v>
+        <v>0.348824</v>
       </c>
       <c r="T3" t="n">
-        <v>0.161561</v>
+        <v>0.141178</v>
       </c>
       <c r="U3" t="n">
-        <v>0.44098</v>
+        <v>0.503965</v>
       </c>
       <c r="V3" t="n">
-        <v>0.122777</v>
+        <v>0.043904</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8762799999999999</v>
+        <v>0.950063</v>
       </c>
       <c r="X3" t="n">
-        <v>0.241218</v>
+        <v>0.10267</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.757839</v>
+        <v>0.891297</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.391581</v>
+        <v>0.19608</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.607476</v>
+        <v>0.797887</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.550654</v>
+        <v>0.319811</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.448403</v>
+        <v>0.674156</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.694902</v>
+        <v>0.460293</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.304155</v>
+        <v>0.533674</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.8155520000000001</v>
+        <v>0.882715</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.184448</v>
+        <v>0.117285</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.599231</v>
+        <v>0.712565</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.400769</v>
+        <v>0.287435</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.8346749999999999</v>
+        <v>0.925683</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.165325</v>
+        <v>0.07431699999999999</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.629565</v>
+        <v>0.797502</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.370435</v>
+        <v>0.202498</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.709696</v>
+        <v>0.631793</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.747436</v>
+        <v>0.767918</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00</t>
+          <t>2025-11-25T19:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897810</v>
+        <v>897813</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897813.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.615385</v>
+        <v>1.166667</v>
       </c>
       <c r="H4" t="n">
-        <v>2.109924</v>
+        <v>1.03125</v>
       </c>
       <c r="I4" t="n">
-        <v>1.115385</v>
+        <v>1.233333</v>
       </c>
       <c r="J4" t="n">
-        <v>1.63253</v>
+        <v>3.874015</v>
       </c>
       <c r="K4" t="n">
-        <v>3.123958</v>
+        <v>2.520341</v>
       </c>
       <c r="L4" t="n">
-        <v>1.612654</v>
+        <v>1.132292</v>
       </c>
       <c r="M4" t="n">
-        <v>6.725309</v>
+        <v>2.197917</v>
       </c>
       <c r="N4" t="n">
-        <v>34.357697</v>
+        <v>25.593223</v>
       </c>
       <c r="O4" t="n">
-        <v>28.798769</v>
+        <v>23.641989</v>
       </c>
       <c r="P4" t="n">
-        <v>63.156466</v>
+        <v>49.235212</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.013181</v>
+        <v>-0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.676504</v>
+        <v>0.675169</v>
       </c>
       <c r="T4" t="n">
-        <v>0.151808</v>
+        <v>0.172768</v>
       </c>
       <c r="U4" t="n">
-        <v>0.171278</v>
+        <v>0.151996</v>
       </c>
       <c r="V4" t="n">
-        <v>0.30396</v>
+        <v>0.5040829999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.695631</v>
+        <v>0.49585</v>
       </c>
       <c r="X4" t="n">
-        <v>0.487857</v>
+        <v>0.696346</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.511733</v>
+        <v>0.303588</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.662067</v>
+        <v>0.836799</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.337523</v>
+        <v>0.163135</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7995949999999999</v>
+        <v>0.922303</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.199996</v>
+        <v>0.07763100000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8926539999999999</v>
+        <v>0.966919</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.106936</v>
+        <v>0.033015</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.818617</v>
+        <v>0.716851</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.181383</v>
+        <v>0.283149</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.604001</v>
+        <v>0.461394</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.395999</v>
+        <v>0.538606</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.479147</v>
+        <v>0.312776</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.520853</v>
+        <v>0.6872239999999999</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.219917</v>
+        <v>0.106172</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.780083</v>
+        <v>0.893828</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.924297</v>
+        <v>0.944574</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.509023</v>
+        <v>0.539866</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-25T19:00:00</t>
+          <t>2025-11-26T12:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897814</v>
+        <v>897818</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897814.html</t>
+          <t>https://text.khl.ru/text/897818.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.138889</v>
+        <v>1.91778</v>
       </c>
       <c r="H2" t="n">
-        <v>5.538462</v>
+        <v>2.626433</v>
       </c>
       <c r="I2" t="n">
-        <v>3.91689</v>
+        <v>1.554363</v>
       </c>
       <c r="J2" t="n">
-        <v>1.307692</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1.223291</v>
+        <v>3.35889</v>
       </c>
       <c r="L2" t="n">
-        <v>4.727676</v>
+        <v>2.090398</v>
       </c>
       <c r="M2" t="n">
-        <v>6.67735</v>
+        <v>4.544213</v>
       </c>
       <c r="N2" t="n">
-        <v>23.62224</v>
+        <v>29.99177</v>
       </c>
       <c r="O2" t="n">
-        <v>40.878477</v>
+        <v>28.61054</v>
       </c>
       <c r="P2" t="n">
-        <v>64.50071699999999</v>
+        <v>58.60231</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>-0.127799</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0.050246</v>
       </c>
       <c r="S2" t="n">
-        <v>0.040577</v>
+        <v>0.625932</v>
       </c>
       <c r="T2" t="n">
-        <v>0.059853</v>
+        <v>0.153208</v>
       </c>
       <c r="U2" t="n">
-        <v>0.890176</v>
+        <v>0.220113</v>
       </c>
       <c r="V2" t="n">
-        <v>0.155633</v>
+        <v>0.207513</v>
       </c>
       <c r="W2" t="n">
-        <v>0.834974</v>
+        <v>0.79174</v>
       </c>
       <c r="X2" t="n">
-        <v>0.291673</v>
+        <v>0.365474</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6989340000000001</v>
+        <v>0.633778</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.453587</v>
+        <v>0.5376300000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5370200000000001</v>
+        <v>0.461622</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.614178</v>
+        <v>0.693985</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.376429</v>
+        <v>0.305268</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.750703</v>
+        <v>0.815702</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.239904</v>
+        <v>0.18355</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.345774</v>
+        <v>0.848425</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.654226</v>
+        <v>0.151575</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.125602</v>
+        <v>0.652263</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.874398</v>
+        <v>0.347737</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.949327</v>
+        <v>0.61791</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.050673</v>
+        <v>0.38209</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.850458</v>
+        <v>0.347775</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.149542</v>
+        <v>0.6522250000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.205009</v>
+        <v>0.8879050000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.977089</v>
+        <v>0.548087</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00</t>
+          <t>2025-11-26T17:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897812</v>
+        <v>897816</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.588235</v>
+        <v>4.435928</v>
       </c>
       <c r="H3" t="n">
-        <v>3.665934</v>
+        <v>3.568607</v>
       </c>
       <c r="I3" t="n">
-        <v>4.852941</v>
+        <v>5.035714</v>
       </c>
       <c r="J3" t="n">
-        <v>2.788167</v>
+        <v>2.320284</v>
       </c>
       <c r="K3" t="n">
-        <v>3.688201</v>
+        <v>3.378106</v>
       </c>
       <c r="L3" t="n">
-        <v>4.259438</v>
+        <v>4.302161</v>
       </c>
       <c r="M3" t="n">
-        <v>8.254168999999999</v>
+        <v>8.004535000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>36.153363</v>
+        <v>39.059641</v>
       </c>
       <c r="O3" t="n">
-        <v>34.978634</v>
+        <v>31.713169</v>
       </c>
       <c r="P3" t="n">
-        <v>71.131997</v>
+        <v>70.77281000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>0.140026</v>
       </c>
       <c r="R3" t="n">
-        <v>0.113231</v>
+        <v>0.131141</v>
       </c>
       <c r="S3" t="n">
-        <v>0.348824</v>
+        <v>0.300991</v>
       </c>
       <c r="T3" t="n">
-        <v>0.141178</v>
+        <v>0.139072</v>
       </c>
       <c r="U3" t="n">
-        <v>0.503965</v>
+        <v>0.554329</v>
       </c>
       <c r="V3" t="n">
-        <v>0.043904</v>
+        <v>0.052503</v>
       </c>
       <c r="W3" t="n">
-        <v>0.950063</v>
+        <v>0.941889</v>
       </c>
       <c r="X3" t="n">
-        <v>0.10267</v>
+        <v>0.11946</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.891297</v>
+        <v>0.874932</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.19608</v>
+        <v>0.22231</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.797887</v>
+        <v>0.772082</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.319811</v>
+        <v>0.353962</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.674156</v>
+        <v>0.6404300000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.460293</v>
+        <v>0.498408</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.533674</v>
+        <v>0.495984</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.882715</v>
+        <v>0.850654</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.117285</v>
+        <v>0.149346</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.712565</v>
+        <v>0.656018</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.287435</v>
+        <v>0.343982</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.925683</v>
+        <v>0.928213</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.07431699999999999</v>
+        <v>0.071787</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.797502</v>
+        <v>0.802916</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.202498</v>
+        <v>0.197084</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.631793</v>
+        <v>0.5863159999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.767918</v>
+        <v>0.80824</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00</t>
+          <t>2025-11-26T19:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897813</v>
+        <v>897817</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.166667</v>
+        <v>1.464286</v>
       </c>
       <c r="H4" t="n">
-        <v>1.03125</v>
+        <v>2.390395</v>
       </c>
       <c r="I4" t="n">
-        <v>1.233333</v>
+        <v>1.107143</v>
       </c>
       <c r="J4" t="n">
-        <v>3.874015</v>
+        <v>1.410664</v>
       </c>
       <c r="K4" t="n">
-        <v>2.520341</v>
+        <v>1.437475</v>
       </c>
       <c r="L4" t="n">
-        <v>1.132292</v>
+        <v>1.748769</v>
       </c>
       <c r="M4" t="n">
-        <v>2.197917</v>
+        <v>3.854681</v>
       </c>
       <c r="N4" t="n">
-        <v>25.593223</v>
+        <v>24.993415</v>
       </c>
       <c r="O4" t="n">
-        <v>23.641989</v>
+        <v>27.964901</v>
       </c>
       <c r="P4" t="n">
-        <v>49.235212</v>
+        <v>52.958316</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2</v>
+        <v>0.009782000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.675169</v>
+        <v>0.317655</v>
       </c>
       <c r="T4" t="n">
-        <v>0.172768</v>
+        <v>0.231914</v>
       </c>
       <c r="U4" t="n">
-        <v>0.151996</v>
+        <v>0.450429</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5040829999999999</v>
+        <v>0.605583</v>
       </c>
       <c r="W4" t="n">
-        <v>0.49585</v>
+        <v>0.394414</v>
       </c>
       <c r="X4" t="n">
-        <v>0.696346</v>
+        <v>0.783058</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.303588</v>
+        <v>0.216939</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.836799</v>
+        <v>0.896154</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.163135</v>
+        <v>0.103844</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.922303</v>
+        <v>0.956212</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.07763100000000001</v>
+        <v>0.043785</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.966919</v>
+        <v>0.983549</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.033015</v>
+        <v>0.016448</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.716851</v>
+        <v>0.421034</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.283149</v>
+        <v>0.578966</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.461394</v>
+        <v>0.17563</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.538606</v>
+        <v>0.82437</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.312776</v>
+        <v>0.521747</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6872239999999999</v>
+        <v>0.478253</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.106172</v>
+        <v>0.255703</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.893828</v>
+        <v>0.744297</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.944574</v>
+        <v>0.7598</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.539866</v>
+        <v>0.855151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897815</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897815.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.014963</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.067992</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.713803</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.78325</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.899107</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.390898</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.082955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24.33595</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26.124622</v>
+      </c>
+      <c r="P5" t="n">
+        <v>50.460572</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.110672</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.124268</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.311642</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.194412</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.493899</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.378954</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.620999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.572371</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.427582</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.738323</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.261631</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.856978</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.142975</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.929697</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.070256</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.565997</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.434003</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.296038</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.703962</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.689572</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.310428</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.427911</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.572089</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.6964630000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.839553</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-26T12:30:00</t>
+          <t>2025-11-27T17:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897818</v>
+        <v>897819</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897818.html</t>
+          <t>https://text.khl.ru/text/897819.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91778</v>
+        <v>1.454545</v>
       </c>
       <c r="H2" t="n">
-        <v>2.626433</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.554363</v>
+        <v>2.59603</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.227273</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35889</v>
+        <v>2.840909</v>
       </c>
       <c r="L2" t="n">
-        <v>2.090398</v>
+        <v>1.798015</v>
       </c>
       <c r="M2" t="n">
-        <v>4.544213</v>
+        <v>2.454545</v>
       </c>
       <c r="N2" t="n">
-        <v>29.99177</v>
+        <v>23.48092</v>
       </c>
       <c r="O2" t="n">
-        <v>28.61054</v>
+        <v>23.645876</v>
       </c>
       <c r="P2" t="n">
-        <v>58.60231</v>
+        <v>47.126796</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.127799</v>
+        <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.050246</v>
+        <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.625932</v>
+        <v>0.59579</v>
       </c>
       <c r="T2" t="n">
-        <v>0.153208</v>
+        <v>0.172039</v>
       </c>
       <c r="U2" t="n">
-        <v>0.220113</v>
+        <v>0.231982</v>
       </c>
       <c r="V2" t="n">
-        <v>0.207513</v>
+        <v>0.319402</v>
       </c>
       <c r="W2" t="n">
-        <v>0.79174</v>
+        <v>0.68041</v>
       </c>
       <c r="X2" t="n">
-        <v>0.365474</v>
+        <v>0.505953</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.633778</v>
+        <v>0.493858</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5376300000000001</v>
+        <v>0.679033</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.461622</v>
+        <v>0.320779</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.693985</v>
+        <v>0.81285</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.305268</v>
+        <v>0.186961</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.815702</v>
+        <v>0.901531</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.18355</v>
+        <v>0.09828000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.848425</v>
+        <v>0.775796</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.151575</v>
+        <v>0.224204</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.652263</v>
+        <v>0.540241</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.347737</v>
+        <v>0.459759</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.61791</v>
+        <v>0.536572</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.38209</v>
+        <v>0.463428</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.347775</v>
+        <v>0.268847</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6522250000000001</v>
+        <v>0.7311530000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8879050000000001</v>
+        <v>0.888398</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.548087</v>
+        <v>0.594522</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-26T17:00:00</t>
+          <t>2025-11-27T17:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897816</v>
+        <v>897821</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897816.html</t>
+          <t>https://text.khl.ru/text/897821.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.435928</v>
+        <v>6.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.568607</v>
+        <v>5.678571</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035714</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.320284</v>
+        <v>1.957785</v>
       </c>
       <c r="K3" t="n">
-        <v>3.378106</v>
+        <v>4.128893</v>
       </c>
       <c r="L3" t="n">
-        <v>4.302161</v>
+        <v>5.139286</v>
       </c>
       <c r="M3" t="n">
-        <v>8.004535000000001</v>
+        <v>11.978571</v>
       </c>
       <c r="N3" t="n">
-        <v>39.059641</v>
+        <v>37.406257</v>
       </c>
       <c r="O3" t="n">
-        <v>31.713169</v>
+        <v>35.92968</v>
       </c>
       <c r="P3" t="n">
-        <v>70.77281000000001</v>
+        <v>73.335938</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.140026</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.131141</v>
+        <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.300991</v>
+        <v>0.304904</v>
       </c>
       <c r="T3" t="n">
-        <v>0.139072</v>
+        <v>0.126149</v>
       </c>
       <c r="U3" t="n">
-        <v>0.554329</v>
+        <v>0.549013</v>
       </c>
       <c r="V3" t="n">
-        <v>0.052503</v>
+        <v>0.017546</v>
       </c>
       <c r="W3" t="n">
-        <v>0.941889</v>
+        <v>0.96252</v>
       </c>
       <c r="X3" t="n">
-        <v>0.11946</v>
+        <v>0.046563</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.874932</v>
+        <v>0.933504</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.22231</v>
+        <v>0.100349</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.772082</v>
+        <v>0.879717</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.353962</v>
+        <v>0.183432</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6404300000000001</v>
+        <v>0.796634</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.498408</v>
+        <v>0.293437</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.495984</v>
+        <v>0.686629</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.850654</v>
+        <v>0.917421</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.149346</v>
+        <v>0.082579</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.656018</v>
+        <v>0.780181</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.343982</v>
+        <v>0.219819</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.928213</v>
+        <v>0.964012</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.071787</v>
+        <v>0.035988</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.802916</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.197084</v>
+        <v>0.1134</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5863159999999999</v>
+        <v>0.563876</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.80824</v>
+        <v>0.781871</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-26T19:00:00</t>
+          <t>2025-11-27T19:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897817</v>
+        <v>897820</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897817.html</t>
+          <t>https://text.khl.ru/text/897820.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.464286</v>
+        <v>4.07223</v>
       </c>
       <c r="H4" t="n">
-        <v>2.390395</v>
+        <v>2.501555</v>
       </c>
       <c r="I4" t="n">
-        <v>1.107143</v>
+        <v>4.583333</v>
       </c>
       <c r="J4" t="n">
-        <v>1.410664</v>
+        <v>2.83482</v>
       </c>
       <c r="K4" t="n">
-        <v>1.437475</v>
+        <v>3.453525</v>
       </c>
       <c r="L4" t="n">
-        <v>1.748769</v>
+        <v>3.542444</v>
       </c>
       <c r="M4" t="n">
-        <v>3.854681</v>
+        <v>6.573785</v>
       </c>
       <c r="N4" t="n">
-        <v>24.993415</v>
+        <v>36.594732</v>
       </c>
       <c r="O4" t="n">
-        <v>27.964901</v>
+        <v>28.024318</v>
       </c>
       <c r="P4" t="n">
-        <v>52.958316</v>
+        <v>64.61905</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2</v>
+        <v>0.153209</v>
       </c>
       <c r="R4" t="n">
-        <v>0.009782000000000001</v>
+        <v>-0.038073</v>
       </c>
       <c r="S4" t="n">
-        <v>0.317655</v>
+        <v>0.409069</v>
       </c>
       <c r="T4" t="n">
-        <v>0.231914</v>
+        <v>0.153703</v>
       </c>
       <c r="U4" t="n">
-        <v>0.450429</v>
+        <v>0.435191</v>
       </c>
       <c r="V4" t="n">
-        <v>0.605583</v>
+        <v>0.08197599999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.394414</v>
+        <v>0.915987</v>
       </c>
       <c r="X4" t="n">
-        <v>0.783058</v>
+        <v>0.17336</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.216939</v>
+        <v>0.824603</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.896154</v>
+        <v>0.301223</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.103844</v>
+        <v>0.69674</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.956212</v>
+        <v>0.450312</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.043785</v>
+        <v>0.547651</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.983549</v>
+        <v>0.599314</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.016448</v>
+        <v>0.398649</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.421034</v>
+        <v>0.859117</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.578966</v>
+        <v>0.140883</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.17563</v>
+        <v>0.670471</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.82437</v>
+        <v>0.329529</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.521747</v>
+        <v>0.86853</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.478253</v>
+        <v>0.13147</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.255703</v>
+        <v>0.686932</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.744297</v>
+        <v>0.313068</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7598</v>
+        <v>0.706839</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.855151</v>
+        <v>0.729345</v>
       </c>
     </row>
     <row r="5">
@@ -1046,131 +1046,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00</t>
+          <t>2025-11-27T19:30:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>897815</v>
+        <v>897822</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897815.html</t>
+          <t>https://text.khl.ru/text/897822.html</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.014963</v>
+        <v>2.188722</v>
       </c>
       <c r="H5" t="n">
-        <v>2.067992</v>
+        <v>1.117647</v>
       </c>
       <c r="I5" t="n">
-        <v>2.713803</v>
+        <v>1.178571</v>
       </c>
       <c r="J5" t="n">
-        <v>1.78325</v>
+        <v>3.442604</v>
       </c>
       <c r="K5" t="n">
-        <v>1.899107</v>
+        <v>2.815663</v>
       </c>
       <c r="L5" t="n">
-        <v>2.390898</v>
+        <v>1.148109</v>
       </c>
       <c r="M5" t="n">
-        <v>4.082955</v>
+        <v>3.306369</v>
       </c>
       <c r="N5" t="n">
-        <v>24.33595</v>
+        <v>27.591019</v>
       </c>
       <c r="O5" t="n">
-        <v>26.124622</v>
+        <v>20.850574</v>
       </c>
       <c r="P5" t="n">
-        <v>50.460572</v>
+        <v>48.441593</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.110672</v>
+        <v>-0.101053</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.124268</v>
+        <v>-0.2</v>
       </c>
       <c r="S5" t="n">
-        <v>0.311642</v>
+        <v>0.719666</v>
       </c>
       <c r="T5" t="n">
-        <v>0.194412</v>
+        <v>0.151933</v>
       </c>
       <c r="U5" t="n">
-        <v>0.493899</v>
+        <v>0.128229</v>
       </c>
       <c r="V5" t="n">
-        <v>0.378954</v>
+        <v>0.44058</v>
       </c>
       <c r="W5" t="n">
-        <v>0.620999</v>
+        <v>0.559249</v>
       </c>
       <c r="X5" t="n">
-        <v>0.572371</v>
+        <v>0.635914</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.427582</v>
+        <v>0.363914</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.738323</v>
+        <v>0.790767</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.261631</v>
+        <v>0.209062</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.856978</v>
+        <v>0.893066</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.142975</v>
+        <v>0.106762</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.929697</v>
+        <v>0.950994</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.070256</v>
+        <v>0.048834</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.565997</v>
+        <v>0.771575</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.434003</v>
+        <v>0.228425</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.296038</v>
+        <v>0.534272</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.703962</v>
+        <v>0.465728</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.689572</v>
+        <v>0.318542</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.310428</v>
+        <v>0.681458</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.427911</v>
+        <v>0.109459</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.572089</v>
+        <v>0.890541</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6964630000000001</v>
+        <v>0.953673</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.839553</v>
+        <v>0.481443</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-27T17:00:00</t>
+          <t>2025-11-28T17:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897819</v>
+        <v>897827</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897819.html</t>
+          <t>https://text.khl.ru/text/897827.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.454545</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.59603</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.227273</v>
+        <v>6.875</v>
       </c>
       <c r="K2" t="n">
-        <v>2.840909</v>
+        <v>6.1875</v>
       </c>
       <c r="L2" t="n">
-        <v>1.798015</v>
+        <v>2.85</v>
       </c>
       <c r="M2" t="n">
-        <v>2.454545</v>
+        <v>6.5</v>
       </c>
       <c r="N2" t="n">
-        <v>23.48092</v>
+        <v>41.132791</v>
       </c>
       <c r="O2" t="n">
-        <v>23.645876</v>
+        <v>22.883368</v>
       </c>
       <c r="P2" t="n">
-        <v>47.126796</v>
+        <v>64.016159</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
         <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.59579</v>
+        <v>0.779471</v>
       </c>
       <c r="T2" t="n">
-        <v>0.172039</v>
+        <v>0.07383199999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>0.231982</v>
+        <v>0.09566</v>
       </c>
       <c r="V2" t="n">
-        <v>0.319402</v>
+        <v>0.020671</v>
       </c>
       <c r="W2" t="n">
-        <v>0.68041</v>
+        <v>0.928292</v>
       </c>
       <c r="X2" t="n">
-        <v>0.505953</v>
+        <v>0.053712</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.493858</v>
+        <v>0.895251</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.679033</v>
+        <v>0.113432</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.320779</v>
+        <v>0.835531</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.81285</v>
+        <v>0.203386</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.186961</v>
+        <v>0.745577</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.901531</v>
+        <v>0.319523</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09828000000000001</v>
+        <v>0.62944</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.775796</v>
+        <v>0.9852300000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.224204</v>
+        <v>0.01477</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.540241</v>
+        <v>0.945893</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.459759</v>
+        <v>0.054107</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.536572</v>
+        <v>0.777299</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.463428</v>
+        <v>0.222701</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.268847</v>
+        <v>0.5423789999999999</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7311530000000001</v>
+        <v>0.457621</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.888398</v>
+        <v>0.90032</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.594522</v>
+        <v>0.271571</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-27T17:00:00</t>
+          <t>2025-11-28T19:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897821</v>
+        <v>897823</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897821.html</t>
+          <t>https://text.khl.ru/text/897823.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.3</v>
+        <v>2.240677</v>
       </c>
       <c r="H3" t="n">
-        <v>5.678571</v>
+        <v>3.923077</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.6875</v>
       </c>
       <c r="J3" t="n">
-        <v>1.957785</v>
+        <v>1.756236</v>
       </c>
       <c r="K3" t="n">
-        <v>4.128893</v>
+        <v>1.998456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.139286</v>
+        <v>4.305288</v>
       </c>
       <c r="M3" t="n">
-        <v>11.978571</v>
+        <v>6.163754</v>
       </c>
       <c r="N3" t="n">
-        <v>37.406257</v>
+        <v>29.335543</v>
       </c>
       <c r="O3" t="n">
-        <v>35.92968</v>
+        <v>34.435929</v>
       </c>
       <c r="P3" t="n">
-        <v>73.335938</v>
+        <v>63.771472</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>-0.101243</v>
       </c>
       <c r="R3" t="n">
         <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.304904</v>
+        <v>0.125662</v>
       </c>
       <c r="T3" t="n">
-        <v>0.126149</v>
+        <v>0.108911</v>
       </c>
       <c r="U3" t="n">
-        <v>0.549013</v>
+        <v>0.760551</v>
       </c>
       <c r="V3" t="n">
-        <v>0.017546</v>
+        <v>0.126087</v>
       </c>
       <c r="W3" t="n">
-        <v>0.96252</v>
+        <v>0.8690369999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>0.046563</v>
+        <v>0.246453</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.933504</v>
+        <v>0.748671</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.100349</v>
+        <v>0.398203</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.879717</v>
+        <v>0.596921</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.183432</v>
+        <v>0.557636</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.796634</v>
+        <v>0.437488</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.293437</v>
+        <v>0.701211</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.686629</v>
+        <v>0.293913</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.917421</v>
+        <v>0.593576</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.082579</v>
+        <v>0.406424</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.780181</v>
+        <v>0.322906</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.219819</v>
+        <v>0.677094</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.964012</v>
+        <v>0.928395</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.035988</v>
+        <v>0.071605</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.8866000000000001</v>
+        <v>0.803308</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1134</v>
+        <v>0.196692</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.563876</v>
+        <v>0.380078</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.781871</v>
+        <v>0.937003</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00</t>
+          <t>2025-11-28T19:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897820</v>
+        <v>897824</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897824.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.07223</v>
+        <v>2.383937</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501555</v>
+        <v>4.636364</v>
       </c>
       <c r="I4" t="n">
-        <v>4.583333</v>
+        <v>3.009599</v>
       </c>
       <c r="J4" t="n">
-        <v>2.83482</v>
+        <v>1.484589</v>
       </c>
       <c r="K4" t="n">
-        <v>3.453525</v>
+        <v>1.934263</v>
       </c>
       <c r="L4" t="n">
-        <v>3.542444</v>
+        <v>3.822981</v>
       </c>
       <c r="M4" t="n">
-        <v>6.573785</v>
+        <v>7.0203</v>
       </c>
       <c r="N4" t="n">
-        <v>36.594732</v>
+        <v>27.808605</v>
       </c>
       <c r="O4" t="n">
-        <v>28.024318</v>
+        <v>39.608055</v>
       </c>
       <c r="P4" t="n">
-        <v>64.61905</v>
+        <v>67.41665999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.153209</v>
+        <v>-0.060951</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.038073</v>
+        <v>0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.409069</v>
+        <v>0.154026</v>
       </c>
       <c r="T4" t="n">
-        <v>0.153703</v>
+        <v>0.127631</v>
       </c>
       <c r="U4" t="n">
-        <v>0.435191</v>
+        <v>0.716317</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08197599999999999</v>
+        <v>0.174216</v>
       </c>
       <c r="W4" t="n">
-        <v>0.915987</v>
+        <v>0.823758</v>
       </c>
       <c r="X4" t="n">
-        <v>0.17336</v>
+        <v>0.318863</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.824603</v>
+        <v>0.679112</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.301223</v>
+        <v>0.485416</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.69674</v>
+        <v>0.512559</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.450312</v>
+        <v>0.64523</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.547651</v>
+        <v>0.352744</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.599314</v>
+        <v>0.776672</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.398649</v>
+        <v>0.221303</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.859117</v>
+        <v>0.575909</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.140883</v>
+        <v>0.424091</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.670471</v>
+        <v>0.305537</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.329529</v>
+        <v>0.6944630000000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.86853</v>
+        <v>0.894557</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.13147</v>
+        <v>0.105443</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.686932</v>
+        <v>0.734795</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.313068</v>
+        <v>0.265205</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.706839</v>
+        <v>0.443622</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.729345</v>
+        <v>0.925895</v>
       </c>
     </row>
     <row r="5">
@@ -1046,131 +1046,264 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00</t>
+          <t>2025-11-28T19:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>897822</v>
+        <v>897825</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897822.html</t>
+          <t>https://text.khl.ru/text/897825.html</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.188722</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.117647</v>
+        <v>1.40625</v>
       </c>
       <c r="I5" t="n">
-        <v>1.178571</v>
+        <v>1.233333</v>
       </c>
       <c r="J5" t="n">
-        <v>3.442604</v>
+        <v>1.15625</v>
       </c>
       <c r="K5" t="n">
-        <v>2.815663</v>
+        <v>1.328125</v>
       </c>
       <c r="L5" t="n">
-        <v>1.148109</v>
+        <v>1.319792</v>
       </c>
       <c r="M5" t="n">
-        <v>3.306369</v>
+        <v>2.90625</v>
       </c>
       <c r="N5" t="n">
-        <v>27.591019</v>
+        <v>22.31792</v>
       </c>
       <c r="O5" t="n">
-        <v>20.850574</v>
+        <v>22.352212</v>
       </c>
       <c r="P5" t="n">
-        <v>48.441593</v>
+        <v>44.670133</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.101053</v>
+        <v>-0.2</v>
       </c>
       <c r="R5" t="n">
         <v>-0.2</v>
       </c>
       <c r="S5" t="n">
-        <v>0.719666</v>
+        <v>0.371378</v>
       </c>
       <c r="T5" t="n">
-        <v>0.151933</v>
+        <v>0.261117</v>
       </c>
       <c r="U5" t="n">
-        <v>0.128229</v>
+        <v>0.367505</v>
       </c>
       <c r="V5" t="n">
-        <v>0.44058</v>
+        <v>0.72554</v>
       </c>
       <c r="W5" t="n">
-        <v>0.559249</v>
+        <v>0.27446</v>
       </c>
       <c r="X5" t="n">
-        <v>0.635914</v>
+        <v>0.87056</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.363914</v>
+        <v>0.129439</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.790767</v>
+        <v>0.947361</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.209062</v>
+        <v>0.052639</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.893066</v>
+        <v>0.981255</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.106762</v>
+        <v>0.018745</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.950994</v>
+        <v>0.994076</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.048834</v>
+        <v>0.005924</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.771575</v>
+        <v>0.383108</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.228425</v>
+        <v>0.616892</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.534272</v>
+        <v>0.149413</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.465728</v>
+        <v>0.850587</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.318542</v>
+        <v>0.380173</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.681458</v>
+        <v>0.619827</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.109459</v>
+        <v>0.147469</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.890541</v>
+        <v>0.852531</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.953673</v>
+        <v>0.835571</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.481443</v>
+        <v>0.832979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>897826</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897826.html</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.591473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.848538</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.736842</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.205882</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.398678</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.29269</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.440011</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27.688566</v>
+      </c>
+      <c r="O6" t="n">
+        <v>27.29634</v>
+      </c>
+      <c r="P6" t="n">
+        <v>54.984906</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.142655</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.107673</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.436582</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.157276</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.404708</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.099342</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.899224</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.203053</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.7955140000000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.341846</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.65672</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.496633</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.501934</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.644594</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.353972</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.853008</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.146992</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.660005</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.339995</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.84051</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.15949</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.639103</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.360897</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.736572</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.709293</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-28T17:00:00</t>
+          <t>2025-11-29T13:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897827</v>
+        <v>897828</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897827.html</t>
+          <t>https://text.khl.ru/text/897828.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>0.833333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3.061201</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>2.620406</v>
       </c>
       <c r="J2" t="n">
-        <v>6.875</v>
+        <v>2.68588</v>
       </c>
       <c r="K2" t="n">
-        <v>6.1875</v>
+        <v>1.759607</v>
       </c>
       <c r="L2" t="n">
-        <v>2.85</v>
+        <v>2.840804</v>
       </c>
       <c r="M2" t="n">
-        <v>6.5</v>
+        <v>3.894535</v>
       </c>
       <c r="N2" t="n">
-        <v>41.132791</v>
+        <v>22.523066</v>
       </c>
       <c r="O2" t="n">
-        <v>22.883368</v>
+        <v>33.006542</v>
       </c>
       <c r="P2" t="n">
-        <v>64.016159</v>
+        <v>55.529608</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2</v>
+        <v>0.05918</v>
       </c>
       <c r="S2" t="n">
-        <v>0.779471</v>
+        <v>0.225401</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07383199999999999</v>
+        <v>0.171304</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09566</v>
+        <v>0.6031069999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>0.020671</v>
+        <v>0.325639</v>
       </c>
       <c r="W2" t="n">
-        <v>0.928292</v>
+        <v>0.674173</v>
       </c>
       <c r="X2" t="n">
-        <v>0.053712</v>
+        <v>0.513157</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.895251</v>
+        <v>0.486655</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.113432</v>
+        <v>0.685689</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.835531</v>
+        <v>0.314124</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.203386</v>
+        <v>0.817975</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.745577</v>
+        <v>0.181838</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.319523</v>
+        <v>0.904913</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.62944</v>
+        <v>0.094899</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9852300000000001</v>
+        <v>0.525037</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01477</v>
+        <v>0.474963</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.945893</v>
+        <v>0.258588</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.054107</v>
+        <v>0.741412</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.777299</v>
+        <v>0.775779</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.222701</v>
+        <v>0.224221</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5423789999999999</v>
+        <v>0.540216</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.457621</v>
+        <v>0.459784</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.90032</v>
+        <v>0.588135</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.271571</v>
+        <v>0.892984</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-28T19:00:00</t>
+          <t>2025-11-29T14:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897823</v>
+        <v>897829</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897823.html</t>
+          <t>https://text.khl.ru/text/897829.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.240677</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.923077</v>
+        <v>1.808836</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6875</v>
+        <v>4.59375</v>
       </c>
       <c r="J3" t="n">
-        <v>1.756236</v>
+        <v>4.736323</v>
       </c>
       <c r="K3" t="n">
-        <v>1.998456</v>
+        <v>5.368161</v>
       </c>
       <c r="L3" t="n">
-        <v>4.305288</v>
+        <v>3.201293</v>
       </c>
       <c r="M3" t="n">
-        <v>6.163754</v>
+        <v>7.808836</v>
       </c>
       <c r="N3" t="n">
-        <v>29.335543</v>
+        <v>38.880765</v>
       </c>
       <c r="O3" t="n">
-        <v>34.435929</v>
+        <v>26.496915</v>
       </c>
       <c r="P3" t="n">
-        <v>63.771472</v>
+        <v>65.37768</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.101243</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>-0.06606099999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.125662</v>
+        <v>0.693818</v>
       </c>
       <c r="T3" t="n">
-        <v>0.108911</v>
+        <v>0.106573</v>
       </c>
       <c r="U3" t="n">
-        <v>0.760551</v>
+        <v>0.177431</v>
       </c>
       <c r="V3" t="n">
-        <v>0.126087</v>
+        <v>0.028695</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8690369999999999</v>
+        <v>0.949128</v>
       </c>
       <c r="X3" t="n">
-        <v>0.246453</v>
+        <v>0.07134600000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.748671</v>
+        <v>0.9064759999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.398203</v>
+        <v>0.144446</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.596921</v>
+        <v>0.833376</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.557636</v>
+        <v>0.248851</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.437488</v>
+        <v>0.728972</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.701211</v>
+        <v>0.376664</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.293913</v>
+        <v>0.601159</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.593576</v>
+        <v>0.970307</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.406424</v>
+        <v>0.029693</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.322906</v>
+        <v>0.903124</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.677094</v>
+        <v>0.096876</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.928395</v>
+        <v>0.828967</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.071605</v>
+        <v>0.171033</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.803308</v>
+        <v>0.620366</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.196692</v>
+        <v>0.379634</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.380078</v>
+        <v>0.877549</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.937003</v>
+        <v>0.413387</v>
       </c>
     </row>
     <row r="4">
@@ -913,397 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-28T19:00:00</t>
+          <t>2025-11-29T17:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897824</v>
+        <v>897830</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897824.html</t>
+          <t>https://text.khl.ru/text/897830.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.383937</v>
+        <v>4.421053</v>
       </c>
       <c r="H4" t="n">
-        <v>4.636364</v>
+        <v>1.111111</v>
       </c>
       <c r="I4" t="n">
-        <v>3.009599</v>
+        <v>3.683199</v>
       </c>
       <c r="J4" t="n">
-        <v>1.484589</v>
+        <v>2.541289</v>
       </c>
       <c r="K4" t="n">
-        <v>1.934263</v>
+        <v>3.481171</v>
       </c>
       <c r="L4" t="n">
-        <v>3.822981</v>
+        <v>2.397155</v>
       </c>
       <c r="M4" t="n">
-        <v>7.0203</v>
+        <v>5.532164</v>
       </c>
       <c r="N4" t="n">
-        <v>27.808605</v>
+        <v>41.634955</v>
       </c>
       <c r="O4" t="n">
-        <v>39.608055</v>
+        <v>21.960244</v>
       </c>
       <c r="P4" t="n">
-        <v>67.41665999999999</v>
+        <v>63.595199</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.060951</v>
+        <v>0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.154026</v>
+        <v>0.591843</v>
       </c>
       <c r="T4" t="n">
-        <v>0.127631</v>
+        <v>0.153703</v>
       </c>
       <c r="U4" t="n">
-        <v>0.716317</v>
+        <v>0.253435</v>
       </c>
       <c r="V4" t="n">
-        <v>0.174216</v>
+        <v>0.162396</v>
       </c>
       <c r="W4" t="n">
-        <v>0.823758</v>
+        <v>0.836584</v>
       </c>
       <c r="X4" t="n">
-        <v>0.318863</v>
+        <v>0.301673</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.679112</v>
+        <v>0.697308</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.485416</v>
+        <v>0.465416</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.512559</v>
+        <v>0.533565</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.64523</v>
+        <v>0.625838</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.352744</v>
+        <v>0.373142</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.776672</v>
+        <v>0.760555</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.221303</v>
+        <v>0.238426</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.575909</v>
+        <v>0.862108</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.424091</v>
+        <v>0.137892</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.305537</v>
+        <v>0.675656</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6944630000000001</v>
+        <v>0.324344</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.894557</v>
+        <v>0.690939</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.105443</v>
+        <v>0.309061</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.734795</v>
+        <v>0.429548</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.265205</v>
+        <v>0.570452</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.443622</v>
+        <v>0.861453</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.925895</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-28T19:00:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897825</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897825.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.40625</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.233333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.15625</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.328125</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.319792</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.90625</v>
-      </c>
-      <c r="N5" t="n">
-        <v>22.31792</v>
-      </c>
-      <c r="O5" t="n">
-        <v>22.352212</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44.670133</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.371378</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.261117</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.367505</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.72554</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.27446</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.87056</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.129439</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.947361</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.052639</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.981255</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.018745</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.994076</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.005924</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.383108</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.616892</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.149413</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.850587</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.380173</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.619827</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.147469</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.852531</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.835571</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.832979</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-28T19:00:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Нефтехимик</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Драконы</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>897826</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897826.html</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.591473</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.848538</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.736842</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.205882</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.398678</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.29269</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.440011</v>
-      </c>
-      <c r="N6" t="n">
-        <v>27.688566</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27.29634</v>
-      </c>
-      <c r="P6" t="n">
-        <v>54.984906</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.142655</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.107673</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.436582</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.157276</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.404708</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.099342</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.899224</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.203053</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.7955140000000001</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.341846</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.65672</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.496633</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.501934</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.644594</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.353972</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.853008</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.146992</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.660005</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.339995</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.84051</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.15949</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.639103</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.360897</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.736572</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.709293</v>
+        <v>0.575461</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-29T13:30:00</t>
+          <t>2025-11-30T10:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897828</v>
+        <v>897831</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897828.html</t>
+          <t>https://text.khl.ru/text/897831.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.833333</v>
+        <v>2.617412</v>
       </c>
       <c r="H2" t="n">
-        <v>3.061201</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.620406</v>
+        <v>1.125</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68588</v>
+        <v>1.540586</v>
       </c>
       <c r="K2" t="n">
-        <v>1.759607</v>
+        <v>2.078999</v>
       </c>
       <c r="L2" t="n">
-        <v>2.840804</v>
+        <v>2.8125</v>
       </c>
       <c r="M2" t="n">
-        <v>3.894535</v>
+        <v>7.117412</v>
       </c>
       <c r="N2" t="n">
-        <v>22.523066</v>
+        <v>28.706351</v>
       </c>
       <c r="O2" t="n">
-        <v>33.006542</v>
+        <v>36.917927</v>
       </c>
       <c r="P2" t="n">
-        <v>55.529608</v>
+        <v>65.624278</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>-0.041041</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05918</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.225401</v>
+        <v>0.284707</v>
       </c>
       <c r="T2" t="n">
-        <v>0.171304</v>
+        <v>0.176781</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6031069999999999</v>
+        <v>0.53833</v>
       </c>
       <c r="V2" t="n">
-        <v>0.325639</v>
+        <v>0.280588</v>
       </c>
       <c r="W2" t="n">
-        <v>0.674173</v>
+        <v>0.71923</v>
       </c>
       <c r="X2" t="n">
-        <v>0.513157</v>
+        <v>0.459734</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.486655</v>
+        <v>0.540084</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.685689</v>
+        <v>0.634992</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.314124</v>
+        <v>0.364827</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.817975</v>
+        <v>0.77787</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.181838</v>
+        <v>0.221948</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.904913</v>
+        <v>0.877712</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.094899</v>
+        <v>0.122106</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.525037</v>
+        <v>0.614955</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.474963</v>
+        <v>0.385045</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.258588</v>
+        <v>0.344695</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.741412</v>
+        <v>0.655305</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.775779</v>
+        <v>0.771042</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.224221</v>
+        <v>0.228958</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.540216</v>
+        <v>0.533521</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.459784</v>
+        <v>0.466479</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.588135</v>
+        <v>0.644371</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.892984</v>
+        <v>0.850298</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-29T14:30:00</t>
+          <t>2025-11-30T10:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897829</v>
+        <v>897832</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897829.html</t>
+          <t>https://text.khl.ru/text/897832.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1.225758</v>
       </c>
       <c r="H3" t="n">
-        <v>1.808836</v>
+        <v>0.961538</v>
       </c>
       <c r="I3" t="n">
-        <v>4.59375</v>
+        <v>1.868405</v>
       </c>
       <c r="J3" t="n">
-        <v>4.736323</v>
+        <v>7.038462</v>
       </c>
       <c r="K3" t="n">
-        <v>5.368161</v>
+        <v>4.13211</v>
       </c>
       <c r="L3" t="n">
-        <v>3.201293</v>
+        <v>1.414972</v>
       </c>
       <c r="M3" t="n">
-        <v>7.808836</v>
+        <v>2.187297</v>
       </c>
       <c r="N3" t="n">
-        <v>38.880765</v>
+        <v>24.98031</v>
       </c>
       <c r="O3" t="n">
-        <v>26.496915</v>
+        <v>25.615145</v>
       </c>
       <c r="P3" t="n">
-        <v>65.37768</v>
+        <v>50.595455</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>-0.191993</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.06606099999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.693818</v>
+        <v>0.827776</v>
       </c>
       <c r="T3" t="n">
-        <v>0.106573</v>
+        <v>0.091762</v>
       </c>
       <c r="U3" t="n">
-        <v>0.177431</v>
+        <v>0.07685</v>
       </c>
       <c r="V3" t="n">
-        <v>0.028695</v>
+        <v>0.196421</v>
       </c>
       <c r="W3" t="n">
-        <v>0.949128</v>
+        <v>0.799967</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07134600000000001</v>
+        <v>0.350229</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9064759999999999</v>
+        <v>0.646159</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.144446</v>
+        <v>0.520867</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.833376</v>
+        <v>0.475522</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.248851</v>
+        <v>0.678623</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.728972</v>
+        <v>0.317765</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.376664</v>
+        <v>0.803636</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.601159</v>
+        <v>0.192752</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.970307</v>
+        <v>0.917635</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.029693</v>
+        <v>0.08236499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.903124</v>
+        <v>0.780622</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.096876</v>
+        <v>0.219378</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.828967</v>
+        <v>0.413325</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.171033</v>
+        <v>0.5866749999999999</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.620366</v>
+        <v>0.170132</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.379634</v>
+        <v>0.8298680000000001</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.877549</v>
+        <v>0.967298</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.413387</v>
+        <v>0.308085</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00</t>
+          <t>2025-11-30T17:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897830</v>
+        <v>897833</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897830.html</t>
+          <t>https://text.khl.ru/text/897833.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.421053</v>
+        <v>3.055625</v>
       </c>
       <c r="H4" t="n">
-        <v>1.111111</v>
+        <v>3.676454</v>
       </c>
       <c r="I4" t="n">
-        <v>3.683199</v>
+        <v>3.88627</v>
       </c>
       <c r="J4" t="n">
-        <v>2.541289</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.481171</v>
+        <v>4.277812</v>
       </c>
       <c r="L4" t="n">
-        <v>2.397155</v>
+        <v>3.781362</v>
       </c>
       <c r="M4" t="n">
-        <v>5.532164</v>
+        <v>6.732079</v>
       </c>
       <c r="N4" t="n">
-        <v>41.634955</v>
+        <v>33.778683</v>
       </c>
       <c r="O4" t="n">
-        <v>21.960244</v>
+        <v>31.087527</v>
       </c>
       <c r="P4" t="n">
-        <v>63.595199</v>
+        <v>64.86621100000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2</v>
+        <v>-0.007958</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2</v>
+        <v>0.151468</v>
       </c>
       <c r="S4" t="n">
-        <v>0.591843</v>
+        <v>0.49328</v>
       </c>
       <c r="T4" t="n">
-        <v>0.153703</v>
+        <v>0.140849</v>
       </c>
       <c r="U4" t="n">
-        <v>0.253435</v>
+        <v>0.359373</v>
       </c>
       <c r="V4" t="n">
-        <v>0.162396</v>
+        <v>0.040717</v>
       </c>
       <c r="W4" t="n">
-        <v>0.836584</v>
+        <v>0.952785</v>
       </c>
       <c r="X4" t="n">
-        <v>0.301673</v>
+        <v>0.096294</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.697308</v>
+        <v>0.897208</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.465416</v>
+        <v>0.185875</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.533565</v>
+        <v>0.807627</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.625838</v>
+        <v>0.3062</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.373142</v>
+        <v>0.687302</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.760555</v>
+        <v>0.444732</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.238426</v>
+        <v>0.548771</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.862108</v>
+        <v>0.926781</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.137892</v>
+        <v>0.07321900000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.675656</v>
+        <v>0.7998459999999999</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.324344</v>
+        <v>0.200154</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.690939</v>
+        <v>0.891025</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.309061</v>
+        <v>0.108975</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.429548</v>
+        <v>0.7280799999999999</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.570452</v>
+        <v>0.27192</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.861453</v>
+        <v>0.758018</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.575461</v>
+        <v>0.6403759999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-30T10:00:00</t>
+          <t>2025-12-01T15:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897831</v>
+        <v>897836</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897831.html</t>
+          <t>https://text.khl.ru/text/897836.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.617412</v>
+        <v>0.846154</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>1.854302</v>
       </c>
       <c r="I2" t="n">
-        <v>1.125</v>
+        <v>3.846402</v>
       </c>
       <c r="J2" t="n">
-        <v>1.540586</v>
+        <v>4.961538</v>
       </c>
       <c r="K2" t="n">
-        <v>2.078999</v>
+        <v>2.903846</v>
       </c>
       <c r="L2" t="n">
-        <v>2.8125</v>
+        <v>2.850352</v>
       </c>
       <c r="M2" t="n">
-        <v>7.117412</v>
+        <v>2.700456</v>
       </c>
       <c r="N2" t="n">
-        <v>28.706351</v>
+        <v>23.063363</v>
       </c>
       <c r="O2" t="n">
-        <v>36.917927</v>
+        <v>29.982381</v>
       </c>
       <c r="P2" t="n">
-        <v>65.624278</v>
+        <v>53.045744</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.041041</v>
+        <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>-0.05563</v>
       </c>
       <c r="S2" t="n">
-        <v>0.284707</v>
+        <v>0.423308</v>
       </c>
       <c r="T2" t="n">
-        <v>0.176781</v>
+        <v>0.17033</v>
       </c>
       <c r="U2" t="n">
-        <v>0.53833</v>
+        <v>0.405949</v>
       </c>
       <c r="V2" t="n">
-        <v>0.280588</v>
+        <v>0.174522</v>
       </c>
       <c r="W2" t="n">
-        <v>0.71923</v>
+        <v>0.825065</v>
       </c>
       <c r="X2" t="n">
-        <v>0.459734</v>
+        <v>0.319303</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.540084</v>
+        <v>0.680284</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.634992</v>
+        <v>0.485923</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.364827</v>
+        <v>0.513664</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.77787</v>
+        <v>0.645717</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.221948</v>
+        <v>0.35387</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.877712</v>
+        <v>0.777072</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.122106</v>
+        <v>0.222515</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.614955</v>
+        <v>0.786022</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.385045</v>
+        <v>0.213978</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.344695</v>
+        <v>0.554926</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.655305</v>
+        <v>0.445074</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.771042</v>
+        <v>0.777357</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.228958</v>
+        <v>0.222643</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.533521</v>
+        <v>0.542462</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.466479</v>
+        <v>0.457538</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.644371</v>
+        <v>0.746927</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.850298</v>
+        <v>0.732445</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-30T10:00:00</t>
+          <t>2025-12-01T19:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897832</v>
+        <v>897835</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897832.html</t>
+          <t>https://text.khl.ru/text/897835.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.225758</v>
+        <v>1.46875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.961538</v>
+        <v>3.9375</v>
       </c>
       <c r="I3" t="n">
-        <v>1.868405</v>
+        <v>1.15625</v>
       </c>
       <c r="J3" t="n">
-        <v>7.038462</v>
+        <v>3.831021</v>
       </c>
       <c r="K3" t="n">
-        <v>4.13211</v>
+        <v>2.649885</v>
       </c>
       <c r="L3" t="n">
-        <v>1.414972</v>
+        <v>2.546875</v>
       </c>
       <c r="M3" t="n">
-        <v>2.187297</v>
+        <v>5.40625</v>
       </c>
       <c r="N3" t="n">
-        <v>24.98031</v>
+        <v>23.963798</v>
       </c>
       <c r="O3" t="n">
-        <v>25.615145</v>
+        <v>35.737266</v>
       </c>
       <c r="P3" t="n">
-        <v>50.595455</v>
+        <v>59.701065</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.191993</v>
+        <v>-0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.827776</v>
+        <v>0.427646</v>
       </c>
       <c r="T3" t="n">
-        <v>0.091762</v>
+        <v>0.179644</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07685</v>
+        <v>0.392535</v>
       </c>
       <c r="V3" t="n">
-        <v>0.196421</v>
+        <v>0.238485</v>
       </c>
       <c r="W3" t="n">
-        <v>0.799967</v>
+        <v>0.761341</v>
       </c>
       <c r="X3" t="n">
-        <v>0.350229</v>
+        <v>0.406673</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.646159</v>
+        <v>0.593153</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.520867</v>
+        <v>0.581479</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.475522</v>
+        <v>0.418346</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.678623</v>
+        <v>0.732884</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.317765</v>
+        <v>0.266941</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.803636</v>
+        <v>0.845286</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.192752</v>
+        <v>0.154539</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.917635</v>
+        <v>0.742102</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08236499999999999</v>
+        <v>0.257898</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.780622</v>
+        <v>0.494021</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.219378</v>
+        <v>0.505979</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.413325</v>
+        <v>0.722187</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.5866749999999999</v>
+        <v>0.277813</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.170132</v>
+        <v>0.468153</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8298680000000001</v>
+        <v>0.531847</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.967298</v>
+        <v>0.765397</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.308085</v>
+        <v>0.736681</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00</t>
+          <t>2025-12-01T19:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897833</v>
+        <v>897834</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897833.html</t>
+          <t>https://text.khl.ru/text/897834.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.055625</v>
+        <v>3.561942</v>
       </c>
       <c r="H4" t="n">
-        <v>3.676454</v>
+        <v>1.027778</v>
       </c>
       <c r="I4" t="n">
-        <v>3.88627</v>
+        <v>1.166667</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>2.157709</v>
       </c>
       <c r="K4" t="n">
-        <v>4.277812</v>
+        <v>2.859826</v>
       </c>
       <c r="L4" t="n">
-        <v>3.781362</v>
+        <v>1.097222</v>
       </c>
       <c r="M4" t="n">
-        <v>6.732079</v>
+        <v>4.58972</v>
       </c>
       <c r="N4" t="n">
-        <v>33.778683</v>
+        <v>29.27658</v>
       </c>
       <c r="O4" t="n">
-        <v>31.087527</v>
+        <v>21.790523</v>
       </c>
       <c r="P4" t="n">
-        <v>64.86621100000001</v>
+        <v>51.067103</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.007958</v>
+        <v>0.07492600000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.151468</v>
+        <v>-0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.49328</v>
+        <v>0.736415</v>
       </c>
       <c r="T4" t="n">
-        <v>0.140849</v>
+        <v>0.146246</v>
       </c>
       <c r="U4" t="n">
-        <v>0.359373</v>
+        <v>0.117143</v>
       </c>
       <c r="V4" t="n">
-        <v>0.040717</v>
+        <v>0.441906</v>
       </c>
       <c r="W4" t="n">
-        <v>0.952785</v>
+        <v>0.557898</v>
       </c>
       <c r="X4" t="n">
-        <v>0.096294</v>
+        <v>0.637228</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.897208</v>
+        <v>0.362576</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.185875</v>
+        <v>0.791807</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.807627</v>
+        <v>0.207997</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3062</v>
+        <v>0.893753</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.687302</v>
+        <v>0.106051</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.444732</v>
+        <v>0.951383</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.548771</v>
+        <v>0.048421</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.926781</v>
+        <v>0.778914</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07321900000000001</v>
+        <v>0.221086</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7998459999999999</v>
+        <v>0.5446839999999999</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.200154</v>
+        <v>0.455316</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.891025</v>
+        <v>0.299953</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.108975</v>
+        <v>0.700047</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7280799999999999</v>
+        <v>0.099025</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.27192</v>
+        <v>0.900975</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.758018</v>
+        <v>0.959053</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6403759999999999</v>
+        <v>0.462498</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-01T19:30:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897837</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897837.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.460695</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.942447</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.503297</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.325609</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.393152</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.222872</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.403142</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24.776157</v>
+      </c>
+      <c r="O5" t="n">
+        <v>31.069775</v>
+      </c>
+      <c r="P5" t="n">
+        <v>55.845933</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.180896</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.02035</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.235408</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.201686</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5628840000000001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.511816</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.488162</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.703372</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.296606</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.841905</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.158073</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.925396</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.074582</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.968525</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.031453</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.405801</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.594199</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.16485</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.8351499999999999</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.650971</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.349029</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.383413</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.616587</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.651632</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.899029</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-01T15:30:00</t>
+          <t>2025-12-02T12:15:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897836</v>
+        <v>897838</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897836.html</t>
+          <t>https://text.khl.ru/text/897838.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.846154</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.854302</v>
+        <v>4.615385</v>
       </c>
       <c r="I2" t="n">
-        <v>3.846402</v>
+        <v>1.552526</v>
       </c>
       <c r="J2" t="n">
-        <v>4.961538</v>
+        <v>1.230769</v>
       </c>
       <c r="K2" t="n">
-        <v>2.903846</v>
+        <v>1.165385</v>
       </c>
       <c r="L2" t="n">
-        <v>2.850352</v>
+        <v>3.083955</v>
       </c>
       <c r="M2" t="n">
-        <v>2.700456</v>
+        <v>5.715385</v>
       </c>
       <c r="N2" t="n">
-        <v>23.063363</v>
+        <v>22.192716</v>
       </c>
       <c r="O2" t="n">
-        <v>29.982381</v>
+        <v>42.630188</v>
       </c>
       <c r="P2" t="n">
-        <v>53.045744</v>
+        <v>64.82290399999999</v>
       </c>
       <c r="Q2" t="n">
         <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.05563</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.423308</v>
+        <v>0.110222</v>
       </c>
       <c r="T2" t="n">
-        <v>0.17033</v>
+        <v>0.134865</v>
       </c>
       <c r="U2" t="n">
-        <v>0.405949</v>
+        <v>0.7545460000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>0.174522</v>
+        <v>0.386332</v>
       </c>
       <c r="W2" t="n">
-        <v>0.825065</v>
+        <v>0.613301</v>
       </c>
       <c r="X2" t="n">
-        <v>0.319303</v>
+        <v>0.580246</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.680284</v>
+        <v>0.419386</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.485923</v>
+        <v>0.745048</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.513664</v>
+        <v>0.254585</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.645717</v>
+        <v>0.861764</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.35387</v>
+        <v>0.137868</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.777072</v>
+        <v>0.932617</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.222515</v>
+        <v>0.06701600000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.786022</v>
+        <v>0.324827</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.213978</v>
+        <v>0.675173</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.554926</v>
+        <v>0.113094</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.445074</v>
+        <v>0.886906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.777357</v>
+        <v>0.813045</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.222643</v>
+        <v>0.186955</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.542462</v>
+        <v>0.595354</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.457538</v>
+        <v>0.404646</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.746927</v>
+        <v>0.432665</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.732445</v>
+        <v>0.960294</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-01T19:00:00</t>
+          <t>2025-12-02T12:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897835</v>
+        <v>897839</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897835.html</t>
+          <t>https://text.khl.ru/text/897839.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.46875</v>
+        <v>2.505511</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9375</v>
+        <v>0.928571</v>
       </c>
       <c r="I3" t="n">
-        <v>1.15625</v>
+        <v>1.913907</v>
       </c>
       <c r="J3" t="n">
-        <v>3.831021</v>
+        <v>6.535714</v>
       </c>
       <c r="K3" t="n">
-        <v>2.649885</v>
+        <v>4.520612</v>
       </c>
       <c r="L3" t="n">
-        <v>2.546875</v>
+        <v>1.421239</v>
       </c>
       <c r="M3" t="n">
-        <v>5.40625</v>
+        <v>3.434082</v>
       </c>
       <c r="N3" t="n">
-        <v>23.963798</v>
+        <v>32.125309</v>
       </c>
       <c r="O3" t="n">
-        <v>35.737266</v>
+        <v>21.640231</v>
       </c>
       <c r="P3" t="n">
-        <v>59.701065</v>
+        <v>53.76554</v>
       </c>
       <c r="Q3" t="n">
+        <v>-0.038093</v>
+      </c>
+      <c r="R3" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.2</v>
-      </c>
       <c r="S3" t="n">
-        <v>0.427646</v>
+        <v>0.856225</v>
       </c>
       <c r="T3" t="n">
-        <v>0.179644</v>
+        <v>0.07615</v>
       </c>
       <c r="U3" t="n">
-        <v>0.392535</v>
+        <v>0.060739</v>
       </c>
       <c r="V3" t="n">
-        <v>0.238485</v>
+        <v>0.156469</v>
       </c>
       <c r="W3" t="n">
-        <v>0.761341</v>
+        <v>0.836645</v>
       </c>
       <c r="X3" t="n">
-        <v>0.406673</v>
+        <v>0.292915</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.593153</v>
+        <v>0.700198</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.581479</v>
+        <v>0.455064</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.418346</v>
+        <v>0.538049</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.732884</v>
+        <v>0.615642</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.266941</v>
+        <v>0.377472</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.845286</v>
+        <v>0.751946</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.154539</v>
+        <v>0.241168</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.742102</v>
+        <v>0.939923</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.257898</v>
+        <v>0.060077</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.494021</v>
+        <v>0.828727</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.505979</v>
+        <v>0.171273</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.722187</v>
+        <v>0.415477</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.277813</v>
+        <v>0.584523</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.468153</v>
+        <v>0.171658</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.531847</v>
+        <v>0.828342</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.765397</v>
+        <v>0.970588</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.736681</v>
+        <v>0.258435</v>
       </c>
     </row>
     <row r="4">
@@ -913,264 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00</t>
+          <t>2025-12-02T19:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897834</v>
+        <v>897840</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897834.html</t>
+          <t>https://text.khl.ru/text/897840.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.561942</v>
+        <v>2.392003</v>
       </c>
       <c r="H4" t="n">
-        <v>1.027778</v>
+        <v>3.857143</v>
       </c>
       <c r="I4" t="n">
-        <v>1.166667</v>
+        <v>2.506591</v>
       </c>
       <c r="J4" t="n">
-        <v>2.157709</v>
+        <v>3.762853</v>
       </c>
       <c r="K4" t="n">
-        <v>2.859826</v>
+        <v>3.077428</v>
       </c>
       <c r="L4" t="n">
-        <v>1.097222</v>
+        <v>3.181867</v>
       </c>
       <c r="M4" t="n">
-        <v>4.58972</v>
+        <v>6.249146</v>
       </c>
       <c r="N4" t="n">
-        <v>29.27658</v>
+        <v>28.33909</v>
       </c>
       <c r="O4" t="n">
-        <v>21.790523</v>
+        <v>33.415371</v>
       </c>
       <c r="P4" t="n">
-        <v>51.067103</v>
+        <v>61.75446</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07492600000000001</v>
+        <v>-0.111154</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.736415</v>
+        <v>0.401901</v>
       </c>
       <c r="T4" t="n">
-        <v>0.146246</v>
+        <v>0.162865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.117143</v>
+        <v>0.434399</v>
       </c>
       <c r="V4" t="n">
-        <v>0.441906</v>
+        <v>0.129522</v>
       </c>
       <c r="W4" t="n">
-        <v>0.557898</v>
+        <v>0.869642</v>
       </c>
       <c r="X4" t="n">
-        <v>0.637228</v>
+        <v>0.251846</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.362576</v>
+        <v>0.747318</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.791807</v>
+        <v>0.404979</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.207997</v>
+        <v>0.594185</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.893753</v>
+        <v>0.56473</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.106051</v>
+        <v>0.434434</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.951383</v>
+        <v>0.707577</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.048421</v>
+        <v>0.291588</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.778914</v>
+        <v>0.812122</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.221086</v>
+        <v>0.187878</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5446839999999999</v>
+        <v>0.593931</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.455316</v>
+        <v>0.406069</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.299953</v>
+        <v>0.826419</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.700047</v>
+        <v>0.173581</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.099025</v>
+        <v>0.616299</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.900975</v>
+        <v>0.383701</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.959053</v>
+        <v>0.716493</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.462498</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-01T19:30:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897837</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897837.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.460695</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.942447</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.503297</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.325609</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.393152</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.222872</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.403142</v>
-      </c>
-      <c r="N5" t="n">
-        <v>24.776157</v>
-      </c>
-      <c r="O5" t="n">
-        <v>31.069775</v>
-      </c>
-      <c r="P5" t="n">
-        <v>55.845933</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.180896</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.02035</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.235408</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.201686</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.5628840000000001</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.511816</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.488162</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.703372</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.296606</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.841905</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.158073</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.925396</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.074582</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.968525</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.031453</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.405801</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.594199</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.16485</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.8351499999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.650971</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.349029</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.383413</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.616587</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.651632</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.899029</v>
+        <v>0.744011</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-02T12:15:00</t>
+          <t>2025-12-04T12:15:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -657,121 +657,121 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897838</v>
+        <v>897848</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897838.html</t>
+          <t>https://text.khl.ru/text/897848.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>1.09375</v>
       </c>
       <c r="H2" t="n">
-        <v>4.615385</v>
+        <v>1.323529</v>
       </c>
       <c r="I2" t="n">
-        <v>1.552526</v>
+        <v>1.535021</v>
       </c>
       <c r="J2" t="n">
-        <v>1.230769</v>
+        <v>1.234139</v>
       </c>
       <c r="K2" t="n">
-        <v>1.165385</v>
+        <v>1.163944</v>
       </c>
       <c r="L2" t="n">
-        <v>3.083955</v>
+        <v>1.429275</v>
       </c>
       <c r="M2" t="n">
-        <v>5.715385</v>
+        <v>2.417279</v>
       </c>
       <c r="N2" t="n">
-        <v>22.192716</v>
+        <v>21.410046</v>
       </c>
       <c r="O2" t="n">
-        <v>42.630188</v>
+        <v>27.038132</v>
       </c>
       <c r="P2" t="n">
-        <v>64.82290399999999</v>
+        <v>48.448178</v>
       </c>
       <c r="Q2" t="n">
         <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.110222</v>
+        <v>0.30718</v>
       </c>
       <c r="T2" t="n">
-        <v>0.134865</v>
+        <v>0.261547</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7545460000000001</v>
+        <v>0.431273</v>
       </c>
       <c r="V2" t="n">
-        <v>0.386332</v>
+        <v>0.737476</v>
       </c>
       <c r="W2" t="n">
-        <v>0.613301</v>
+        <v>0.262523</v>
       </c>
       <c r="X2" t="n">
-        <v>0.580246</v>
+        <v>0.878381</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.419386</v>
+        <v>0.121619</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.745048</v>
+        <v>0.95146</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.254585</v>
+        <v>0.04854</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.861764</v>
+        <v>0.9830449999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.137868</v>
+        <v>0.016955</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.932617</v>
+        <v>0.994746</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06701600000000001</v>
+        <v>0.005254</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.324827</v>
+        <v>0.324304</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.675173</v>
+        <v>0.675696</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.113094</v>
+        <v>0.112789</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.886906</v>
+        <v>0.887211</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.813045</v>
+        <v>0.418231</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.186955</v>
+        <v>0.581769</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.595354</v>
+        <v>0.173621</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.404646</v>
+        <v>0.826379</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.432665</v>
+        <v>0.792876</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.960294</v>
+        <v>0.875358</v>
       </c>
     </row>
     <row r="3">
@@ -780,7 +780,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-02T12:30:00</t>
+          <t>2025-12-04T12:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -790,121 +790,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897839</v>
+        <v>897849</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897839.html</t>
+          <t>https://text.khl.ru/text/897849.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.505511</v>
+        <v>2.285128</v>
       </c>
       <c r="H3" t="n">
-        <v>0.928571</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.913907</v>
+        <v>2.927092</v>
       </c>
       <c r="J3" t="n">
-        <v>6.535714</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.520612</v>
+        <v>3.192564</v>
       </c>
       <c r="L3" t="n">
-        <v>1.421239</v>
+        <v>3.463546</v>
       </c>
       <c r="M3" t="n">
-        <v>3.434082</v>
+        <v>6.285128</v>
       </c>
       <c r="N3" t="n">
-        <v>32.125309</v>
+        <v>30.885829</v>
       </c>
       <c r="O3" t="n">
-        <v>21.640231</v>
+        <v>34.182529</v>
       </c>
       <c r="P3" t="n">
-        <v>53.76554</v>
+        <v>65.068358</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.038093</v>
+        <v>-0.06324399999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.856225</v>
+        <v>0.37997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07615</v>
+        <v>0.157033</v>
       </c>
       <c r="U3" t="n">
-        <v>0.060739</v>
+        <v>0.461572</v>
       </c>
       <c r="V3" t="n">
-        <v>0.156469</v>
+        <v>0.101549</v>
       </c>
       <c r="W3" t="n">
-        <v>0.836645</v>
+        <v>0.897025</v>
       </c>
       <c r="X3" t="n">
-        <v>0.292915</v>
+        <v>0.206735</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.700198</v>
+        <v>0.791839</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.455064</v>
+        <v>0.346762</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.538049</v>
+        <v>0.651813</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.615642</v>
+        <v>0.5021</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.377472</v>
+        <v>0.496474</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.751946</v>
+        <v>0.649807</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.241168</v>
+        <v>0.348767</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.939923</v>
+        <v>0.827826</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.060077</v>
+        <v>0.172174</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.828727</v>
+        <v>0.618542</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.171273</v>
+        <v>0.381458</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.415477</v>
+        <v>0.860208</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.584523</v>
+        <v>0.139792</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.171658</v>
+        <v>0.672358</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.828342</v>
+        <v>0.327642</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.970588</v>
+        <v>0.687709</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.258435</v>
+        <v>0.75752</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00</t>
+          <t>2025-12-04T16:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897840</v>
+        <v>897847</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897840.html</t>
+          <t>https://text.khl.ru/text/897847.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.392003</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.857143</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.506591</v>
+        <v>1.404568</v>
       </c>
       <c r="J4" t="n">
-        <v>3.762853</v>
+        <v>5.172122</v>
       </c>
       <c r="K4" t="n">
-        <v>3.077428</v>
+        <v>4.836061</v>
       </c>
       <c r="L4" t="n">
-        <v>3.181867</v>
+        <v>1.202284</v>
       </c>
       <c r="M4" t="n">
-        <v>6.249146</v>
+        <v>5.5</v>
       </c>
       <c r="N4" t="n">
-        <v>28.33909</v>
+        <v>40.265219</v>
       </c>
       <c r="O4" t="n">
-        <v>33.415371</v>
+        <v>23.307977</v>
       </c>
       <c r="P4" t="n">
-        <v>61.75446</v>
+        <v>63.573196</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.111154</v>
+        <v>0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.401901</v>
+        <v>0.896996</v>
       </c>
       <c r="T4" t="n">
-        <v>0.162865</v>
+        <v>0.055477</v>
       </c>
       <c r="U4" t="n">
-        <v>0.434399</v>
+        <v>0.036569</v>
       </c>
       <c r="V4" t="n">
-        <v>0.129522</v>
+        <v>0.147815</v>
       </c>
       <c r="W4" t="n">
-        <v>0.869642</v>
+        <v>0.8412269999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>0.251846</v>
+        <v>0.279957</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.747318</v>
+        <v>0.709085</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.404979</v>
+        <v>0.43954</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.594185</v>
+        <v>0.549501</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.56473</v>
+        <v>0.600144</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.434434</v>
+        <v>0.388898</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.707577</v>
+        <v>0.738684</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.291588</v>
+        <v>0.250358</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.812122</v>
+        <v>0.953672</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.187878</v>
+        <v>0.046328</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.593931</v>
+        <v>0.8608440000000001</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.406069</v>
+        <v>0.139156</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.826419</v>
+        <v>0.338198</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.173581</v>
+        <v>0.661802</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.616299</v>
+        <v>0.121009</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.383701</v>
+        <v>0.878991</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.716493</v>
+        <v>0.977066</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.744011</v>
+        <v>0.19097</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-04T12:15:00</t>
+          <t>2025-12-05T17:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897848</v>
+        <v>897850</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897848.html</t>
+          <t>https://text.khl.ru/text/897850.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.09375</v>
+        <v>5.71875</v>
       </c>
       <c r="H2" t="n">
-        <v>1.323529</v>
+        <v>1.312362</v>
       </c>
       <c r="I2" t="n">
-        <v>1.535021</v>
+        <v>3.034944</v>
       </c>
       <c r="J2" t="n">
-        <v>1.234139</v>
+        <v>1.4375</v>
       </c>
       <c r="K2" t="n">
-        <v>1.163944</v>
+        <v>3.578125</v>
       </c>
       <c r="L2" t="n">
-        <v>1.429275</v>
+        <v>2.173653</v>
       </c>
       <c r="M2" t="n">
-        <v>2.417279</v>
+        <v>7.031112</v>
       </c>
       <c r="N2" t="n">
-        <v>21.410046</v>
+        <v>36.896451</v>
       </c>
       <c r="O2" t="n">
-        <v>27.038132</v>
+        <v>23.317432</v>
       </c>
       <c r="P2" t="n">
-        <v>48.448178</v>
+        <v>60.213883</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2</v>
+        <v>-0.160025</v>
       </c>
       <c r="S2" t="n">
-        <v>0.30718</v>
+        <v>0.64388</v>
       </c>
       <c r="T2" t="n">
-        <v>0.261547</v>
+        <v>0.145519</v>
       </c>
       <c r="U2" t="n">
-        <v>0.431273</v>
+        <v>0.209371</v>
       </c>
       <c r="V2" t="n">
-        <v>0.737476</v>
+        <v>0.174766</v>
       </c>
       <c r="W2" t="n">
-        <v>0.262523</v>
+        <v>0.824004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.878381</v>
+        <v>0.319654</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.121619</v>
+        <v>0.6791160000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.95146</v>
+        <v>0.486326</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04854</v>
+        <v>0.512444</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9830449999999999</v>
+        <v>0.646103</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.016955</v>
+        <v>0.352667</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.994746</v>
+        <v>0.77739</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.005254</v>
+        <v>0.221381</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.324304</v>
+        <v>0.872142</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.675696</v>
+        <v>0.127858</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.112789</v>
+        <v>0.693361</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.887211</v>
+        <v>0.306639</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.418231</v>
+        <v>0.638961</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.581769</v>
+        <v>0.361039</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.173621</v>
+        <v>0.370213</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.826379</v>
+        <v>0.629787</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.792876</v>
+        <v>0.892073</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.875358</v>
+        <v>0.523904</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-04T12:30:00</t>
+          <t>2025-12-05T17:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897849</v>
+        <v>897851</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897849.html</t>
+          <t>https://text.khl.ru/text/897851.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.285128</v>
+        <v>3.104859</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.541765</v>
       </c>
       <c r="I3" t="n">
-        <v>2.927092</v>
+        <v>2.913973</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>1.066667</v>
       </c>
       <c r="K3" t="n">
-        <v>3.192564</v>
+        <v>2.085763</v>
       </c>
       <c r="L3" t="n">
-        <v>3.463546</v>
+        <v>2.227869</v>
       </c>
       <c r="M3" t="n">
-        <v>6.285128</v>
+        <v>4.646624</v>
       </c>
       <c r="N3" t="n">
-        <v>30.885829</v>
+        <v>27.108074</v>
       </c>
       <c r="O3" t="n">
-        <v>34.182529</v>
+        <v>26.186936</v>
       </c>
       <c r="P3" t="n">
-        <v>65.068358</v>
+        <v>53.29501</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.06324399999999999</v>
+        <v>-0.017864</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>-0.168735</v>
       </c>
       <c r="S3" t="n">
-        <v>0.37997</v>
+        <v>0.374402</v>
       </c>
       <c r="T3" t="n">
-        <v>0.157033</v>
+        <v>0.198276</v>
       </c>
       <c r="U3" t="n">
-        <v>0.461572</v>
+        <v>0.427287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.101549</v>
+        <v>0.374708</v>
       </c>
       <c r="W3" t="n">
-        <v>0.897025</v>
+        <v>0.625258</v>
       </c>
       <c r="X3" t="n">
-        <v>0.206735</v>
+        <v>0.567805</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.791839</v>
+        <v>0.432161</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.346762</v>
+        <v>0.734394</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.651813</v>
+        <v>0.265571</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5021</v>
+        <v>0.854162</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.496474</v>
+        <v>0.145804</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.649807</v>
+        <v>0.927967</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.348767</v>
+        <v>0.07199899999999999</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.827826</v>
+        <v>0.61671</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.172174</v>
+        <v>0.38329</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.618542</v>
+        <v>0.346523</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.381458</v>
+        <v>0.653477</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.860208</v>
+        <v>0.652172</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.139792</v>
+        <v>0.347828</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.672358</v>
+        <v>0.384749</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.327642</v>
+        <v>0.615251</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.687709</v>
+        <v>0.7518820000000001</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.75752</v>
+        <v>0.793337</v>
       </c>
     </row>
     <row r="4">
@@ -913,56 +913,56 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00</t>
+          <t>2025-12-05T17:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897847</v>
+        <v>897855</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897847.html</t>
+          <t>https://text.khl.ru/text/897855.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.59375</v>
       </c>
       <c r="I4" t="n">
-        <v>1.404568</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>5.172122</v>
+        <v>1.1875</v>
       </c>
       <c r="K4" t="n">
-        <v>4.836061</v>
+        <v>3.21875</v>
       </c>
       <c r="L4" t="n">
-        <v>1.202284</v>
+        <v>2.671875</v>
       </c>
       <c r="M4" t="n">
-        <v>5.5</v>
+        <v>6.84375</v>
       </c>
       <c r="N4" t="n">
-        <v>40.265219</v>
+        <v>32.058457</v>
       </c>
       <c r="O4" t="n">
-        <v>23.307977</v>
+        <v>24.168153</v>
       </c>
       <c r="P4" t="n">
-        <v>63.573196</v>
+        <v>56.226611</v>
       </c>
       <c r="Q4" t="n">
         <v>0.2</v>
@@ -971,73 +971,605 @@
         <v>-0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.896996</v>
+        <v>0.50456</v>
       </c>
       <c r="T4" t="n">
-        <v>0.055477</v>
+        <v>0.164426</v>
       </c>
       <c r="U4" t="n">
-        <v>0.036569</v>
+        <v>0.330383</v>
       </c>
       <c r="V4" t="n">
-        <v>0.147815</v>
+        <v>0.161234</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8412269999999999</v>
+        <v>0.838135</v>
       </c>
       <c r="X4" t="n">
-        <v>0.279957</v>
+        <v>0.299963</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.709085</v>
+        <v>0.699406</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.43954</v>
+        <v>0.463404</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.549501</v>
+        <v>0.535965</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.600144</v>
+        <v>0.623865</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.388898</v>
+        <v>0.375504</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.738684</v>
+        <v>0.758896</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.250358</v>
+        <v>0.240473</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.953672</v>
+        <v>0.831229</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.046328</v>
+        <v>0.168771</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8608440000000001</v>
+        <v>0.623996</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.139156</v>
+        <v>0.376004</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.338198</v>
+        <v>0.746191</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.661802</v>
+        <v>0.253809</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.121009</v>
+        <v>0.499461</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.878991</v>
+        <v>0.500539</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.977066</v>
+        <v>0.805343</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.19097</v>
+        <v>0.659074</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:30:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897856</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897856.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.394737</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.961538</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.421053</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.884615</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.639676</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.691296</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.356275</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23.887111</v>
+      </c>
+      <c r="O5" t="n">
+        <v>38.240211</v>
+      </c>
+      <c r="P5" t="n">
+        <v>62.127322</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.29229</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.131939</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.56549</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.033828</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.955892</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.082187</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.907533</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.162762</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.8269570000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.274641</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.715079</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.407792</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.581928</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.878158</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.121842</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.704216</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.295784</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.947784</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.052216</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.846823</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.153177</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.564631</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.806358</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-05T18:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>897854</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897854.html</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.923077</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.631811</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.795369</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.055288</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.21359</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.554888</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.218038</v>
+      </c>
+      <c r="O6" t="n">
+        <v>31.26235</v>
+      </c>
+      <c r="P6" t="n">
+        <v>52.480388</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.056253</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.169416</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.194473</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.63609</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5872230000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.412756</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.768243</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.231736</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.88659</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.113389</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.951067</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.048912</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.981177</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.018802</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.284571</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.715429</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.09074699999999999</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.909253</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.64873</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.35127</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.380928</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.619072</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.593186</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.939876</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>897853</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897853.html</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.71875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.65625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.853125</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.296875</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.768750000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.193418</v>
+      </c>
+      <c r="O7" t="n">
+        <v>41.360427</v>
+      </c>
+      <c r="P7" t="n">
+        <v>75.553845</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.256289</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.120081</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6016049999999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.019086</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.958888</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.050109</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9278650000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.10688</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.871094</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.193457</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.784518</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.306625</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.67135</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.897049</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.102951</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.739576</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.260424</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.9684700000000001</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.03153</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.898227</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.101773</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.50909</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.818231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:30:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>897852</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897852.html</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.330401</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.382353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.038462</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.446421</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.888411</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.710407</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.712754</v>
+      </c>
+      <c r="N8" t="n">
+        <v>26.821065</v>
+      </c>
+      <c r="O8" t="n">
+        <v>26.902948</v>
+      </c>
+      <c r="P8" t="n">
+        <v>53.724013</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.08110299999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.264389</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.179804</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.555678</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.325899</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.673972</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.513456</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.486415</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.685963</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.313908</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.8181850000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.181686</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.905052</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.094819</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.562949</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.437051</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.293152</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.706848</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.7532219999999999</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.246778</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.508921</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.491079</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.633982</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.867713</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-05T17:00:00</t>
+          <t>2025-12-06T10:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897850</v>
+        <v>897857</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897850.html</t>
+          <t>https://text.khl.ru/text/897857.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.71875</v>
+        <v>2.484553</v>
       </c>
       <c r="H2" t="n">
-        <v>1.312362</v>
+        <v>1.333333</v>
       </c>
       <c r="I2" t="n">
-        <v>3.034944</v>
+        <v>3.662332</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4375</v>
+        <v>1.083333</v>
       </c>
       <c r="K2" t="n">
-        <v>3.578125</v>
+        <v>1.783943</v>
       </c>
       <c r="L2" t="n">
-        <v>2.173653</v>
+        <v>2.497833</v>
       </c>
       <c r="M2" t="n">
-        <v>7.031112</v>
+        <v>3.817887</v>
       </c>
       <c r="N2" t="n">
-        <v>36.896451</v>
+        <v>28.531358</v>
       </c>
       <c r="O2" t="n">
-        <v>23.317432</v>
+        <v>23.34155</v>
       </c>
       <c r="P2" t="n">
-        <v>60.213883</v>
+        <v>51.872908</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>-0.017761</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.160025</v>
+        <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.64388</v>
+        <v>0.273982</v>
       </c>
       <c r="T2" t="n">
-        <v>0.145519</v>
+        <v>0.189318</v>
       </c>
       <c r="U2" t="n">
-        <v>0.209371</v>
+        <v>0.536636</v>
       </c>
       <c r="V2" t="n">
-        <v>0.174766</v>
+        <v>0.38044</v>
       </c>
       <c r="W2" t="n">
-        <v>0.824004</v>
+        <v>0.619496</v>
       </c>
       <c r="X2" t="n">
-        <v>0.319654</v>
+        <v>0.573963</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6791160000000001</v>
+        <v>0.425973</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.486326</v>
+        <v>0.739687</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.512444</v>
+        <v>0.260249</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.646103</v>
+        <v>0.857953</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.352667</v>
+        <v>0.141983</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.77739</v>
+        <v>0.930294</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.221381</v>
+        <v>0.069642</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.872142</v>
+        <v>0.532369</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.127858</v>
+        <v>0.467631</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.693361</v>
+        <v>0.265083</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.306639</v>
+        <v>0.734917</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.638961</v>
+        <v>0.712257</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.361039</v>
+        <v>0.287743</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.370213</v>
+        <v>0.455631</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.629787</v>
+        <v>0.544369</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.892073</v>
+        <v>0.658541</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.523904</v>
+        <v>0.865394</v>
       </c>
     </row>
     <row r="3">
@@ -780,796 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-05T17:00:00</t>
+          <t>2025-12-06T10:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897851</v>
+        <v>897858</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897851.html</t>
+          <t>https://text.khl.ru/text/897858.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.104859</v>
+        <v>1.029412</v>
       </c>
       <c r="H3" t="n">
-        <v>1.541765</v>
+        <v>4.03125</v>
       </c>
       <c r="I3" t="n">
-        <v>2.913973</v>
+        <v>2.343385</v>
       </c>
       <c r="J3" t="n">
-        <v>1.066667</v>
+        <v>3.682246</v>
       </c>
       <c r="K3" t="n">
-        <v>2.085763</v>
+        <v>2.355829</v>
       </c>
       <c r="L3" t="n">
-        <v>2.227869</v>
+        <v>3.187317</v>
       </c>
       <c r="M3" t="n">
-        <v>4.646624</v>
+        <v>5.060662</v>
       </c>
       <c r="N3" t="n">
-        <v>27.108074</v>
+        <v>24.42176</v>
       </c>
       <c r="O3" t="n">
-        <v>26.186936</v>
+        <v>39.711177</v>
       </c>
       <c r="P3" t="n">
-        <v>53.29501</v>
+        <v>64.132937</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.017864</v>
+        <v>-0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.168735</v>
+        <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.374402</v>
+        <v>0.282618</v>
       </c>
       <c r="T3" t="n">
-        <v>0.198276</v>
+        <v>0.164186</v>
       </c>
       <c r="U3" t="n">
-        <v>0.427287</v>
+        <v>0.552678</v>
       </c>
       <c r="V3" t="n">
-        <v>0.374708</v>
+        <v>0.196858</v>
       </c>
       <c r="W3" t="n">
-        <v>0.625258</v>
+        <v>0.802625</v>
       </c>
       <c r="X3" t="n">
-        <v>0.567805</v>
+        <v>0.350835</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.432161</v>
+        <v>0.648647</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.734394</v>
+        <v>0.5215379999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.265571</v>
+        <v>0.477944</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.854162</v>
+        <v>0.679244</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.145804</v>
+        <v>0.320238</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.927967</v>
+        <v>0.804128</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.07199899999999999</v>
+        <v>0.195354</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.61671</v>
+        <v>0.681817</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.38329</v>
+        <v>0.318183</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.346523</v>
+        <v>0.41871</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.653477</v>
+        <v>0.58129</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.652172</v>
+        <v>0.827137</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.347828</v>
+        <v>0.172863</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.384749</v>
+        <v>0.617443</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.615251</v>
+        <v>0.382557</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7518820000000001</v>
+        <v>0.619339</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.793337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-05T17:00:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Автомобилист</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>897855</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897855.html</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.59375</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.21875</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.671875</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.84375</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32.058457</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24.168153</v>
-      </c>
-      <c r="P4" t="n">
-        <v>56.226611</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.50456</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.164426</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.330383</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.161234</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.838135</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.299963</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.699406</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.463404</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.535965</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.623865</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.375504</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.758896</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.240473</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.831229</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.168771</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.623996</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.376004</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.746191</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.253809</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.499461</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.500539</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.805343</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.659074</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-05T17:30:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Барыс</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Спартак</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897856</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897856.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.394737</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.961538</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.421053</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.884615</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.639676</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.691296</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.356275</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23.887111</v>
-      </c>
-      <c r="O5" t="n">
-        <v>38.240211</v>
-      </c>
-      <c r="P5" t="n">
-        <v>62.127322</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.29229</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.131939</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.56549</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.033828</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.955892</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.082187</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.907533</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.162762</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.8269570000000001</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.274641</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.715079</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.407792</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.581928</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.878158</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.121842</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.704216</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.295784</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.947784</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.052216</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.846823</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.153177</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.564631</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.806358</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-05T18:00:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Лада</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>897854</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897854.html</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.923077</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.631811</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.795369</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.055288</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.21359</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.554888</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.218038</v>
-      </c>
-      <c r="O6" t="n">
-        <v>31.26235</v>
-      </c>
-      <c r="P6" t="n">
-        <v>52.480388</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.056253</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.169416</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.194473</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.63609</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.5872230000000001</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.412756</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.768243</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.231736</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.88659</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.113389</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.951067</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.048912</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.981177</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.018802</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.284571</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.715429</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.09074699999999999</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.909253</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.64873</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.35127</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.380928</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.619072</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.593186</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.939876</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-05T19:00:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Нефтехимик</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Металлург Мг</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>897853</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897853.html</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.71875</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.875</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65625</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.853125</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.296875</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.768750000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>34.193418</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.360427</v>
-      </c>
-      <c r="P7" t="n">
-        <v>75.553845</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.256289</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.120081</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.6016049999999999</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.019086</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.958888</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.050109</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.9278650000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.10688</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.871094</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.193457</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.784518</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.306625</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.67135</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.897049</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.102951</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.739576</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.260424</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.9684700000000001</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.03153</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.898227</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.101773</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.50909</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.818231</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-05T19:30:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Драконы</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>897852</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897852.html</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.330401</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.382353</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.038462</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.446421</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.888411</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.710407</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.712754</v>
-      </c>
-      <c r="N8" t="n">
-        <v>26.821065</v>
-      </c>
-      <c r="O8" t="n">
-        <v>26.902948</v>
-      </c>
-      <c r="P8" t="n">
-        <v>53.724013</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.08110299999999999</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.264389</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.179804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.555678</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.325899</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.673972</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.513456</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.486415</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.685963</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.313908</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.8181850000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.181686</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.905052</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.094819</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.562949</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.437051</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.293152</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.706848</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.7532219999999999</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.246778</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.508921</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.491079</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.633982</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.867713</v>
+        <v>0.84439</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00</t>
+          <t>2025-12-07T10:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897857</v>
+        <v>897941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897857.html</t>
+          <t>https://text.khl.ru/text/897941.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.484553</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.333333</v>
+        <v>1.125</v>
       </c>
       <c r="I2" t="n">
-        <v>3.662332</v>
+        <v>2.138199</v>
       </c>
       <c r="J2" t="n">
-        <v>1.083333</v>
+        <v>4.798591</v>
       </c>
       <c r="K2" t="n">
-        <v>1.783943</v>
+        <v>4.749295</v>
       </c>
       <c r="L2" t="n">
-        <v>2.497833</v>
+        <v>1.631599</v>
       </c>
       <c r="M2" t="n">
-        <v>3.817887</v>
+        <v>5.825</v>
       </c>
       <c r="N2" t="n">
-        <v>28.531358</v>
+        <v>39.750373</v>
       </c>
       <c r="O2" t="n">
-        <v>23.34155</v>
+        <v>24.609235</v>
       </c>
       <c r="P2" t="n">
-        <v>51.872908</v>
+        <v>64.35960900000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.017761</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
         <v>-0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.273982</v>
+        <v>0.845659</v>
       </c>
       <c r="T2" t="n">
-        <v>0.189318</v>
+        <v>0.076852</v>
       </c>
       <c r="U2" t="n">
-        <v>0.536636</v>
+        <v>0.067797</v>
       </c>
       <c r="V2" t="n">
-        <v>0.38044</v>
+        <v>0.120313</v>
       </c>
       <c r="W2" t="n">
-        <v>0.619496</v>
+        <v>0.869996</v>
       </c>
       <c r="X2" t="n">
-        <v>0.573963</v>
+        <v>0.237297</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.425973</v>
+        <v>0.753011</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.739687</v>
+        <v>0.38659</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.260249</v>
+        <v>0.603718</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.857953</v>
+        <v>0.54536</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.141983</v>
+        <v>0.444948</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.930294</v>
+        <v>0.690089</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.069642</v>
+        <v>0.30022</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.532369</v>
+        <v>0.950224</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.467631</v>
+        <v>0.049776</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.265083</v>
+        <v>0.852582</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.734917</v>
+        <v>0.147418</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.712257</v>
+        <v>0.485216</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.287743</v>
+        <v>0.514784</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.455631</v>
+        <v>0.224839</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.544369</v>
+        <v>0.775161</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.658541</v>
+        <v>0.96328</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.865394</v>
+        <v>0.26332</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,796 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00</t>
+          <t>2025-12-07T14:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897858</v>
+        <v>897861</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897858.html</t>
+          <t>https://text.khl.ru/text/897861.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.029412</v>
+        <v>4.6875</v>
       </c>
       <c r="H3" t="n">
-        <v>4.03125</v>
+        <v>4.928571</v>
       </c>
       <c r="I3" t="n">
-        <v>2.343385</v>
+        <v>1.1875</v>
       </c>
       <c r="J3" t="n">
-        <v>3.682246</v>
+        <v>5.892857</v>
       </c>
       <c r="K3" t="n">
-        <v>2.355829</v>
+        <v>5.290179</v>
       </c>
       <c r="L3" t="n">
-        <v>3.187317</v>
+        <v>3.058036</v>
       </c>
       <c r="M3" t="n">
-        <v>5.060662</v>
+        <v>9.616071</v>
       </c>
       <c r="N3" t="n">
-        <v>24.42176</v>
+        <v>37.804084</v>
       </c>
       <c r="O3" t="n">
-        <v>39.711177</v>
+        <v>37.736471</v>
       </c>
       <c r="P3" t="n">
-        <v>64.132937</v>
+        <v>75.540555</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
         <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.282618</v>
+        <v>0.706041</v>
       </c>
       <c r="T3" t="n">
-        <v>0.164186</v>
+        <v>0.105533</v>
       </c>
       <c r="U3" t="n">
-        <v>0.552678</v>
+        <v>0.168326</v>
       </c>
       <c r="V3" t="n">
-        <v>0.196858</v>
+        <v>0.03343</v>
       </c>
       <c r="W3" t="n">
-        <v>0.802625</v>
+        <v>0.94647</v>
       </c>
       <c r="X3" t="n">
-        <v>0.350835</v>
+        <v>0.081357</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.648647</v>
+        <v>0.898543</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5215379999999999</v>
+        <v>0.161378</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.477944</v>
+        <v>0.818522</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.679244</v>
+        <v>0.272716</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.320238</v>
+        <v>0.707183</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.804128</v>
+        <v>0.405499</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.195354</v>
+        <v>0.5744010000000001</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.681817</v>
+        <v>0.968292</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.318183</v>
+        <v>0.031708</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.41871</v>
+        <v>0.897755</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.58129</v>
+        <v>0.102245</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.827137</v>
+        <v>0.809354</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.172863</v>
+        <v>0.190646</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.617443</v>
+        <v>0.589686</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.382557</v>
+        <v>0.410314</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.619339</v>
+        <v>0.88664</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.84439</v>
+        <v>0.403716</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-07T14:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>897862</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897862.html</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.558824</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.00263</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.199978</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.176471</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.367647</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.601304</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.561453999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.356179</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29.123491</v>
+      </c>
+      <c r="P4" t="n">
+        <v>66.47967</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.014757</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.540125</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.159755</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.299282</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.153996</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.845166</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.289234</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.709928</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.45068</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5484830000000001</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.61129</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.387873</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.748243</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.250919</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.849444</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.150556</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6539779999999999</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.346022</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.732867</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.267133</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.481898</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.518102</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.827803</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.624646</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-07T14:30:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897860</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897860.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.178855</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.702577</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.164417</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.411765</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.79531</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.433497</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.881432</v>
+      </c>
+      <c r="N5" t="n">
+        <v>30.132629</v>
+      </c>
+      <c r="O5" t="n">
+        <v>24.929885</v>
+      </c>
+      <c r="P5" t="n">
+        <v>55.062514</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.10535</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.095328</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.472573</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.177216</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.350001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.234364</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.7654260000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.401303</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.598487</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.575881</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.423909</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.72802</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.27177</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.841664</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.158126</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.768122</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.231878</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.529428</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.470572</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.698781</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.301219</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.439018</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.560982</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.798301</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.69781</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-07T15:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>897864</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897864.html</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.731076</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.083333</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.666667</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.698871</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.754167</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.81441</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26.573095</v>
+      </c>
+      <c r="O6" t="n">
+        <v>22.690164</v>
+      </c>
+      <c r="P6" t="n">
+        <v>49.263259</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.157042</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.56577</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.15049</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.282029</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.115122</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.883167</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.228971</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.769319</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.375904</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.622385</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.533932</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.464357</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.679612</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.318677</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.883696</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.116304</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.714376</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.285624</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.761002</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.238998</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.51955</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.48045</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.835461</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.592606</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-07T16:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>897863</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897863.html</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.928571</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.529412</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.501308</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.413975</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.171273</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.01536</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.457983</v>
+      </c>
+      <c r="N7" t="n">
+        <v>20.050089</v>
+      </c>
+      <c r="O7" t="n">
+        <v>26.643695</v>
+      </c>
+      <c r="P7" t="n">
+        <v>46.693784</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.217122</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.213919</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.568951</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.605497</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.394494</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.782989</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.217002</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.89611</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.103881</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.956189</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.043802</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.9835390000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.016452</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.326966</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.673034</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.114344</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.885656</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.598136</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.401864</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.327481</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.672519</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.659797</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.915817</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-07T17:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>897859</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897859.html</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.28125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.714286</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.997768</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.28125</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34.740097</v>
+      </c>
+      <c r="O8" t="n">
+        <v>27.309915</v>
+      </c>
+      <c r="P8" t="n">
+        <v>62.050012</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.342928</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.170823</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.485882</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.194963</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.80467</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.348205</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.651428</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.518618</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.481015</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.676542</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.323091</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.8019849999999999</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.197648</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.725289</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.274711</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.472116</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.527884</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.800518</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.199482</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.57631</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.42369</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.680891</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.799577</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-07T10:00:00</t>
+          <t>2025-12-16T15:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897941</v>
+        <v>897869</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897941.html</t>
+          <t>https://text.khl.ru/text/897869.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.7</v>
+        <v>1.066667</v>
       </c>
       <c r="H2" t="n">
-        <v>1.125</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.138199</v>
+        <v>3.845946</v>
       </c>
       <c r="J2" t="n">
-        <v>4.798591</v>
+        <v>2.015022</v>
       </c>
       <c r="K2" t="n">
-        <v>4.749295</v>
+        <v>1.540844</v>
       </c>
       <c r="L2" t="n">
-        <v>1.631599</v>
+        <v>4.722973</v>
       </c>
       <c r="M2" t="n">
-        <v>5.825</v>
+        <v>6.666667</v>
       </c>
       <c r="N2" t="n">
-        <v>39.750373</v>
+        <v>22.624</v>
       </c>
       <c r="O2" t="n">
-        <v>24.609235</v>
+        <v>39.66778</v>
       </c>
       <c r="P2" t="n">
-        <v>64.35960900000001</v>
+        <v>62.29178</v>
       </c>
       <c r="Q2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.2</v>
       </c>
-      <c r="R2" t="n">
-        <v>-0.2</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.845659</v>
+        <v>0.061991</v>
       </c>
       <c r="T2" t="n">
-        <v>0.076852</v>
+        <v>0.073958</v>
       </c>
       <c r="U2" t="n">
-        <v>0.067797</v>
+        <v>0.85472</v>
       </c>
       <c r="V2" t="n">
-        <v>0.120313</v>
+        <v>0.129169</v>
       </c>
       <c r="W2" t="n">
-        <v>0.869996</v>
+        <v>0.861501</v>
       </c>
       <c r="X2" t="n">
-        <v>0.237297</v>
+        <v>0.251294</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.753011</v>
+        <v>0.739376</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.38659</v>
+        <v>0.404287</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.603718</v>
+        <v>0.586383</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.54536</v>
+        <v>0.564008</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.444948</v>
+        <v>0.426662</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.690089</v>
+        <v>0.706931</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.30022</v>
+        <v>0.28374</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.950224</v>
+        <v>0.455751</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.049776</v>
+        <v>0.544249</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.852582</v>
+        <v>0.201474</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.147418</v>
+        <v>0.798526</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.485216</v>
+        <v>0.94913</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.514784</v>
+        <v>0.05087</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.224839</v>
+        <v>0.849992</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.775161</v>
+        <v>0.150008</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.96328</v>
+        <v>0.25272</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.26332</v>
+        <v>0.966774</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-07T14:00:00</t>
+          <t>2025-12-16T17:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897861</v>
+        <v>897868</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897861.html</t>
+          <t>https://text.khl.ru/text/897868.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.6875</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.928571</v>
+        <v>1.035714</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1875</v>
+        <v>3.197554</v>
       </c>
       <c r="J3" t="n">
-        <v>5.892857</v>
+        <v>5.035714</v>
       </c>
       <c r="K3" t="n">
-        <v>5.290179</v>
+        <v>5.167857</v>
       </c>
       <c r="L3" t="n">
-        <v>3.058036</v>
+        <v>2.116634</v>
       </c>
       <c r="M3" t="n">
-        <v>9.616071</v>
+        <v>6.335714</v>
       </c>
       <c r="N3" t="n">
-        <v>37.804084</v>
+        <v>35.22868</v>
       </c>
       <c r="O3" t="n">
-        <v>37.736471</v>
+        <v>24.47065</v>
       </c>
       <c r="P3" t="n">
-        <v>75.540555</v>
+        <v>59.699331</v>
       </c>
       <c r="Q3" t="n">
         <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.706041</v>
+        <v>0.814377</v>
       </c>
       <c r="T3" t="n">
-        <v>0.105533</v>
+        <v>0.081043</v>
       </c>
       <c r="U3" t="n">
-        <v>0.168326</v>
+        <v>0.087563</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03343</v>
+        <v>0.068088</v>
       </c>
       <c r="W3" t="n">
-        <v>0.94647</v>
+        <v>0.914895</v>
       </c>
       <c r="X3" t="n">
-        <v>0.081357</v>
+        <v>0.148584</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.898543</v>
+        <v>0.834399</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.161378</v>
+        <v>0.265858</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.818522</v>
+        <v>0.717126</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.272716</v>
+        <v>0.408237</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.707183</v>
+        <v>0.574746</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.405499</v>
+        <v>0.556404</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5744010000000001</v>
+        <v>0.426579</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.968292</v>
+        <v>0.964863</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.031708</v>
+        <v>0.035137</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.897755</v>
+        <v>0.888792</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.102245</v>
+        <v>0.111208</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.809354</v>
+        <v>0.624644</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.190646</v>
+        <v>0.375356</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.589686</v>
+        <v>0.354858</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.410314</v>
+        <v>0.645142</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.88664</v>
+        <v>0.943187</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.403716</v>
+        <v>0.28523</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-07T14:00:00</t>
+          <t>2025-12-16T18:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897862</v>
+        <v>897871</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897862.html</t>
+          <t>https://text.khl.ru/text/897871.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.558824</v>
+        <v>0.933333</v>
       </c>
       <c r="H4" t="n">
-        <v>3.00263</v>
+        <v>1.743933</v>
       </c>
       <c r="I4" t="n">
-        <v>2.199978</v>
+        <v>1.979672</v>
       </c>
       <c r="J4" t="n">
-        <v>1.176471</v>
+        <v>1.361111</v>
       </c>
       <c r="K4" t="n">
-        <v>3.367647</v>
+        <v>1.147222</v>
       </c>
       <c r="L4" t="n">
-        <v>2.601304</v>
+        <v>1.861803</v>
       </c>
       <c r="M4" t="n">
-        <v>8.561453999999999</v>
+        <v>2.677266</v>
       </c>
       <c r="N4" t="n">
-        <v>37.356179</v>
+        <v>20.472803</v>
       </c>
       <c r="O4" t="n">
-        <v>29.123491</v>
+        <v>28.115807</v>
       </c>
       <c r="P4" t="n">
-        <v>66.47967</v>
+        <v>48.58861</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.014757</v>
+        <v>-0.093748</v>
       </c>
       <c r="S4" t="n">
-        <v>0.540125</v>
+        <v>0.232994</v>
       </c>
       <c r="T4" t="n">
-        <v>0.159755</v>
+        <v>0.226297</v>
       </c>
       <c r="U4" t="n">
-        <v>0.299282</v>
+        <v>0.540705</v>
       </c>
       <c r="V4" t="n">
-        <v>0.153996</v>
+        <v>0.64521</v>
       </c>
       <c r="W4" t="n">
-        <v>0.845166</v>
+        <v>0.354786</v>
       </c>
       <c r="X4" t="n">
-        <v>0.289234</v>
+        <v>0.8137450000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.709928</v>
+        <v>0.186251</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.45068</v>
+        <v>0.915169</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5484830000000001</v>
+        <v>0.084826</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.61129</v>
+        <v>0.9660339999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.387873</v>
+        <v>0.033961</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.748243</v>
+        <v>0.987899</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.250919</v>
+        <v>0.012096</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.849444</v>
+        <v>0.318219</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.150556</v>
+        <v>0.681781</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6539779999999999</v>
+        <v>0.109274</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.346022</v>
+        <v>0.890726</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.732867</v>
+        <v>0.555298</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.267133</v>
+        <v>0.444702</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.481898</v>
+        <v>0.285979</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.518102</v>
+        <v>0.714021</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.827803</v>
+        <v>0.691107</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.624646</v>
+        <v>0.909845</v>
       </c>
     </row>
     <row r="5">
@@ -1046,131 +1046,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-07T14:30:00</t>
+          <t>2025-12-16T19:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>897860</v>
+        <v>897866</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897860.html</t>
+          <t>https://text.khl.ru/text/897866.html</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.178855</v>
+        <v>2.233075</v>
       </c>
       <c r="H5" t="n">
-        <v>1.702577</v>
+        <v>4.376873</v>
       </c>
       <c r="I5" t="n">
-        <v>3.164417</v>
+        <v>1.525518</v>
       </c>
       <c r="J5" t="n">
-        <v>1.411765</v>
+        <v>1.214286</v>
       </c>
       <c r="K5" t="n">
-        <v>2.79531</v>
+        <v>1.72368</v>
       </c>
       <c r="L5" t="n">
-        <v>2.433497</v>
+        <v>2.951196</v>
       </c>
       <c r="M5" t="n">
-        <v>5.881432</v>
+        <v>6.609949</v>
       </c>
       <c r="N5" t="n">
-        <v>30.132629</v>
+        <v>25.39464</v>
       </c>
       <c r="O5" t="n">
-        <v>24.929885</v>
+        <v>35.477968</v>
       </c>
       <c r="P5" t="n">
-        <v>55.062514</v>
+        <v>60.872609</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.10535</v>
+        <v>-0.128841</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.095328</v>
+        <v>0.170011</v>
       </c>
       <c r="S5" t="n">
-        <v>0.472573</v>
+        <v>0.206709</v>
       </c>
       <c r="T5" t="n">
-        <v>0.177216</v>
+        <v>0.164605</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350001</v>
+        <v>0.628429</v>
       </c>
       <c r="V5" t="n">
-        <v>0.234364</v>
+        <v>0.313656</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7654260000000001</v>
+        <v>0.686087</v>
       </c>
       <c r="X5" t="n">
-        <v>0.401303</v>
+        <v>0.499263</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.598487</v>
+        <v>0.500479</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.575881</v>
+        <v>0.672802</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.423909</v>
+        <v>0.326941</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.72802</v>
+        <v>0.808014</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.27177</v>
+        <v>0.191729</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.841664</v>
+        <v>0.8983139999999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.158126</v>
+        <v>0.101429</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.768122</v>
+        <v>0.514073</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.231878</v>
+        <v>0.485927</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.529428</v>
+        <v>0.249041</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.470572</v>
+        <v>0.750959</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.698781</v>
+        <v>0.793443</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.301219</v>
+        <v>0.206557</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.439018</v>
+        <v>0.565787</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.560982</v>
+        <v>0.434213</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.798301</v>
+        <v>0.560992</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.69781</v>
+        <v>0.903817</v>
       </c>
     </row>
     <row r="6">
@@ -1179,131 +1179,131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-07T15:00:00</t>
+          <t>2025-12-16T19:00:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>897864</v>
+        <v>897867</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897864.html</t>
+          <t>https://text.khl.ru/text/897867.html</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.731076</v>
+        <v>3.926991</v>
       </c>
       <c r="H6" t="n">
-        <v>1.083333</v>
+        <v>1.05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.425</v>
+        <v>3.197954</v>
       </c>
       <c r="J6" t="n">
-        <v>5.666667</v>
+        <v>2.252974</v>
       </c>
       <c r="K6" t="n">
-        <v>3.698871</v>
+        <v>3.089982</v>
       </c>
       <c r="L6" t="n">
-        <v>2.754167</v>
+        <v>2.123977</v>
       </c>
       <c r="M6" t="n">
-        <v>2.81441</v>
+        <v>4.976991</v>
       </c>
       <c r="N6" t="n">
-        <v>26.573095</v>
+        <v>33.449071</v>
       </c>
       <c r="O6" t="n">
-        <v>22.690164</v>
+        <v>22.215265</v>
       </c>
       <c r="P6" t="n">
-        <v>49.263259</v>
+        <v>55.664336</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.157042</v>
+        <v>0.081373</v>
       </c>
       <c r="R6" t="n">
         <v>-0.2</v>
       </c>
       <c r="S6" t="n">
-        <v>0.56577</v>
+        <v>0.577475</v>
       </c>
       <c r="T6" t="n">
-        <v>0.15049</v>
+        <v>0.16553</v>
       </c>
       <c r="U6" t="n">
-        <v>0.282029</v>
+        <v>0.256607</v>
       </c>
       <c r="V6" t="n">
-        <v>0.115122</v>
+        <v>0.236266</v>
       </c>
       <c r="W6" t="n">
-        <v>0.883167</v>
+        <v>0.763346</v>
       </c>
       <c r="X6" t="n">
-        <v>0.228971</v>
+        <v>0.403786</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.769319</v>
+        <v>0.595827</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.375904</v>
+        <v>0.578474</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.622385</v>
+        <v>0.421138</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.533932</v>
+        <v>0.730277</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.464357</v>
+        <v>0.269336</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.679612</v>
+        <v>0.843347</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.318677</v>
+        <v>0.156265</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.883696</v>
+        <v>0.813895</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.116304</v>
+        <v>0.186105</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.714376</v>
+        <v>0.596665</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.285624</v>
+        <v>0.403335</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.761002</v>
+        <v>0.626512</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.238998</v>
+        <v>0.373488</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.51955</v>
+        <v>0.356839</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.48045</v>
+        <v>0.643161</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.835461</v>
+        <v>0.865995</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.592606</v>
+        <v>0.601063</v>
       </c>
     </row>
     <row r="7">
@@ -1312,131 +1312,131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-12-07T16:00:00</t>
+          <t>2025-12-16T19:00:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>897863</v>
+        <v>897872</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897863.html</t>
+          <t>https://text.khl.ru/text/897872.html</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.928571</v>
+        <v>3.691483</v>
       </c>
       <c r="H7" t="n">
-        <v>1.529412</v>
+        <v>2.343097</v>
       </c>
       <c r="I7" t="n">
-        <v>2.501308</v>
+        <v>4.704545</v>
       </c>
       <c r="J7" t="n">
-        <v>1.413975</v>
+        <v>2.371485</v>
       </c>
       <c r="K7" t="n">
-        <v>1.171273</v>
+        <v>3.031484</v>
       </c>
       <c r="L7" t="n">
-        <v>2.01536</v>
+        <v>3.523821</v>
       </c>
       <c r="M7" t="n">
-        <v>2.457983</v>
+        <v>6.03458</v>
       </c>
       <c r="N7" t="n">
-        <v>20.050089</v>
+        <v>35.326163</v>
       </c>
       <c r="O7" t="n">
-        <v>26.643695</v>
+        <v>31.500113</v>
       </c>
       <c r="P7" t="n">
-        <v>46.693784</v>
+        <v>66.826275</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2</v>
+        <v>0.169913</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2</v>
+        <v>-0.06920999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.217122</v>
+        <v>0.346666</v>
       </c>
       <c r="T7" t="n">
-        <v>0.213919</v>
+        <v>0.156411</v>
       </c>
       <c r="U7" t="n">
-        <v>0.568951</v>
+        <v>0.49553</v>
       </c>
       <c r="V7" t="n">
-        <v>0.605497</v>
+        <v>0.1081</v>
       </c>
       <c r="W7" t="n">
-        <v>0.394494</v>
+        <v>0.890506</v>
       </c>
       <c r="X7" t="n">
-        <v>0.782989</v>
+        <v>0.217553</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.217002</v>
+        <v>0.781053</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.89611</v>
+        <v>0.361053</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.103881</v>
+        <v>0.637554</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.956189</v>
+        <v>0.517833</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.043802</v>
+        <v>0.480773</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.9835390000000001</v>
+        <v>0.664654</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.016452</v>
+        <v>0.333953</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.326966</v>
+        <v>0.805505</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.673034</v>
+        <v>0.194495</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.114344</v>
+        <v>0.583827</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.885656</v>
+        <v>0.416173</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.598136</v>
+        <v>0.866608</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.401864</v>
+        <v>0.133392</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.327481</v>
+        <v>0.683536</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.672519</v>
+        <v>0.316464</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.659797</v>
+        <v>0.658213</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.915817</v>
+        <v>0.785403</v>
       </c>
     </row>
     <row r="8">
@@ -1445,131 +1445,264 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00</t>
+          <t>2025-12-16T19:30:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>897859</v>
+        <v>897865</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897859.html</t>
+          <t>https://text.khl.ru/text/897865.html</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2.579904</v>
       </c>
       <c r="H8" t="n">
-        <v>1.28125</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.714286</v>
+        <v>1.21875</v>
       </c>
       <c r="J8" t="n">
-        <v>1.125</v>
+        <v>6.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5625</v>
+        <v>4.389952</v>
       </c>
       <c r="L8" t="n">
-        <v>2.997768</v>
+        <v>3.159375</v>
       </c>
       <c r="M8" t="n">
-        <v>5.28125</v>
+        <v>7.679904</v>
       </c>
       <c r="N8" t="n">
-        <v>34.740097</v>
+        <v>29.315697</v>
       </c>
       <c r="O8" t="n">
-        <v>27.309915</v>
+        <v>36.075524</v>
       </c>
       <c r="P8" t="n">
-        <v>62.050012</v>
+        <v>65.391221</v>
       </c>
       <c r="Q8" t="n">
+        <v>-0.024741</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.2</v>
       </c>
-      <c r="R8" t="n">
-        <v>-0.2</v>
-      </c>
       <c r="S8" t="n">
-        <v>0.342928</v>
+        <v>0.597759</v>
       </c>
       <c r="T8" t="n">
-        <v>0.170823</v>
+        <v>0.134552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.485882</v>
+        <v>0.261647</v>
       </c>
       <c r="V8" t="n">
-        <v>0.194963</v>
+        <v>0.057255</v>
       </c>
       <c r="W8" t="n">
-        <v>0.80467</v>
+        <v>0.936703</v>
       </c>
       <c r="X8" t="n">
-        <v>0.348205</v>
+        <v>0.128506</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.651428</v>
+        <v>0.865452</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.518618</v>
+        <v>0.236086</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.481015</v>
+        <v>0.757873</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.676542</v>
+        <v>0.371444</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.323091</v>
+        <v>0.622514</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.8019849999999999</v>
+        <v>0.517425</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.197648</v>
+        <v>0.476533</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.725289</v>
+        <v>0.933157</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.274711</v>
+        <v>0.066843</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.472116</v>
+        <v>0.81366</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.527884</v>
+        <v>0.18634</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.800518</v>
+        <v>0.823425</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.199482</v>
+        <v>0.176575</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.57631</v>
+        <v>0.611553</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.42369</v>
+        <v>0.388447</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.680891</v>
+        <v>0.83849</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.799577</v>
+        <v>0.543736</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:30:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>897870</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897870.html</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.979392</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.257346</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.143498</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.526316</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.252854</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.200422</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.236738</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32.012917</v>
+      </c>
+      <c r="O9" t="n">
+        <v>29.012809</v>
+      </c>
+      <c r="P9" t="n">
+        <v>61.025726</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.018638</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.049881</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.725148</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.117991</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.152386</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.115106</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.880419</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.228944</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.766581</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.375869</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.619655</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.533895</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.46163</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.679578</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.315947</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9252860000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.074714</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.796656</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.203344</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.645533</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.354467</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.377399</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.622601</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.920724</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.42033</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-16T15:30:00</t>
+          <t>2025-12-17T12:15:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897869</v>
+        <v>897873</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897869.html</t>
+          <t>https://text.khl.ru/text/897873.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.066667</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>1.441115</v>
       </c>
       <c r="I2" t="n">
-        <v>3.845946</v>
+        <v>1.518503</v>
       </c>
       <c r="J2" t="n">
-        <v>2.015022</v>
+        <v>3.771872</v>
       </c>
       <c r="K2" t="n">
-        <v>1.540844</v>
+        <v>2.385936</v>
       </c>
       <c r="L2" t="n">
-        <v>4.722973</v>
+        <v>1.479809</v>
       </c>
       <c r="M2" t="n">
-        <v>6.666667</v>
+        <v>2.441115</v>
       </c>
       <c r="N2" t="n">
-        <v>22.624</v>
+        <v>22.261267</v>
       </c>
       <c r="O2" t="n">
-        <v>39.66778</v>
+        <v>30.06417</v>
       </c>
       <c r="P2" t="n">
-        <v>62.29178</v>
+        <v>52.325437</v>
       </c>
       <c r="Q2" t="n">
         <v>-0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>-0.120511</v>
       </c>
       <c r="S2" t="n">
-        <v>0.061991</v>
+        <v>0.576651</v>
       </c>
       <c r="T2" t="n">
-        <v>0.073958</v>
+        <v>0.192334</v>
       </c>
       <c r="U2" t="n">
-        <v>0.85472</v>
+        <v>0.230974</v>
       </c>
       <c r="V2" t="n">
-        <v>0.129169</v>
+        <v>0.460129</v>
       </c>
       <c r="W2" t="n">
-        <v>0.861501</v>
+        <v>0.53983</v>
       </c>
       <c r="X2" t="n">
-        <v>0.251294</v>
+        <v>0.655046</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.739376</v>
+        <v>0.344913</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.404287</v>
+        <v>0.805746</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.586383</v>
+        <v>0.194213</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.564008</v>
+        <v>0.90284</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.426662</v>
+        <v>0.097118</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.706931</v>
+        <v>0.956461</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.28374</v>
+        <v>0.043498</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.455751</v>
+        <v>0.688484</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.544249</v>
+        <v>0.311516</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.201474</v>
+        <v>0.426613</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.798526</v>
+        <v>0.573387</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.94913</v>
+        <v>0.435394</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05087</v>
+        <v>0.5646060000000001</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.849992</v>
+        <v>0.186102</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.150008</v>
+        <v>0.813898</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.25272</v>
+        <v>0.898269</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.966774</v>
+        <v>0.631757</v>
       </c>
     </row>
     <row r="3">
@@ -780,929 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-16T17:00:00</t>
+          <t>2025-12-17T19:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897868</v>
+        <v>897874</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897868.html</t>
+          <t>https://text.khl.ru/text/897874.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>1.1875</v>
       </c>
       <c r="H3" t="n">
-        <v>1.035714</v>
+        <v>5.470588</v>
       </c>
       <c r="I3" t="n">
-        <v>3.197554</v>
+        <v>1.669894</v>
       </c>
       <c r="J3" t="n">
-        <v>5.035714</v>
+        <v>3.617647</v>
       </c>
       <c r="K3" t="n">
-        <v>5.167857</v>
+        <v>2.402574</v>
       </c>
       <c r="L3" t="n">
-        <v>2.116634</v>
+        <v>3.570241</v>
       </c>
       <c r="M3" t="n">
-        <v>6.335714</v>
+        <v>6.658088</v>
       </c>
       <c r="N3" t="n">
-        <v>35.22868</v>
+        <v>21.617444</v>
       </c>
       <c r="O3" t="n">
-        <v>24.47065</v>
+        <v>40.562341</v>
       </c>
       <c r="P3" t="n">
-        <v>59.699331</v>
+        <v>62.179785</v>
       </c>
       <c r="Q3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.2</v>
       </c>
-      <c r="R3" t="n">
-        <v>-0.2</v>
-      </c>
       <c r="S3" t="n">
-        <v>0.814377</v>
+        <v>0.244096</v>
       </c>
       <c r="T3" t="n">
-        <v>0.081043</v>
+        <v>0.150405</v>
       </c>
       <c r="U3" t="n">
-        <v>0.087563</v>
+        <v>0.604264</v>
       </c>
       <c r="V3" t="n">
-        <v>0.068088</v>
+        <v>0.153646</v>
       </c>
       <c r="W3" t="n">
-        <v>0.914895</v>
+        <v>0.845119</v>
       </c>
       <c r="X3" t="n">
-        <v>0.148584</v>
+        <v>0.288712</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.834399</v>
+        <v>0.710053</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.265858</v>
+        <v>0.450056</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.717126</v>
+        <v>0.548709</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.408237</v>
+        <v>0.610669</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.574746</v>
+        <v>0.388096</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.556404</v>
+        <v>0.747714</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.426579</v>
+        <v>0.251051</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.964863</v>
+        <v>0.692119</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.035137</v>
+        <v>0.307881</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.888792</v>
+        <v>0.430963</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.111208</v>
+        <v>0.569037</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.624644</v>
+        <v>0.871352</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.375356</v>
+        <v>0.128648</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.354858</v>
+        <v>0.691949</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.645142</v>
+        <v>0.308051</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.943187</v>
+        <v>0.5613629999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.28523</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-16T18:00:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Лада</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>897871</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897871.html</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.933333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.743933</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.979672</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.361111</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.147222</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.861803</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.677266</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20.472803</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28.115807</v>
-      </c>
-      <c r="P4" t="n">
-        <v>48.58861</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.093748</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.232994</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.226297</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.540705</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.64521</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.354786</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.8137450000000001</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.186251</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.915169</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.084826</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.9660339999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.033961</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.987899</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.012096</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.318219</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.681781</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.109274</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.890726</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.555298</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.444702</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.285979</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.714021</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.691107</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.909845</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-16T19:00:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Динамо Мн</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897866</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897866.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.233075</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.376873</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.525518</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.214286</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.72368</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.951196</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.609949</v>
-      </c>
-      <c r="N5" t="n">
-        <v>25.39464</v>
-      </c>
-      <c r="O5" t="n">
-        <v>35.477968</v>
-      </c>
-      <c r="P5" t="n">
-        <v>60.872609</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.128841</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.170011</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.206709</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.164605</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.628429</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.313656</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.686087</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.499263</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.500479</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.672802</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.326941</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.808014</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.191729</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.8983139999999999</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.101429</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.514073</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.485927</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.249041</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.750959</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.793443</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.206557</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.565787</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.434213</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.560992</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.903817</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-16T19:00:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ак Барс</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>897867</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897867.html</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.926991</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.197954</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.252974</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.089982</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.123977</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.976991</v>
-      </c>
-      <c r="N6" t="n">
-        <v>33.449071</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22.215265</v>
-      </c>
-      <c r="P6" t="n">
-        <v>55.664336</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.081373</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.577475</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.16553</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.256607</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.236266</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.763346</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.403786</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.595827</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.578474</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.421138</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.730277</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.269336</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.843347</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.156265</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.813895</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.186105</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.596665</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.403335</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.626512</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.373488</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.356839</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.643161</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.865995</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.601063</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-16T19:00:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Нефтехимик</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>897872</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897872.html</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.691483</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.343097</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.704545</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.371485</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.031484</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.523821</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.03458</v>
-      </c>
-      <c r="N7" t="n">
-        <v>35.326163</v>
-      </c>
-      <c r="O7" t="n">
-        <v>31.500113</v>
-      </c>
-      <c r="P7" t="n">
-        <v>66.826275</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.169913</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.06920999999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.346666</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.156411</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.49553</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.1081</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.890506</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.217553</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.781053</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.361053</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.637554</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.517833</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.480773</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.664654</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.333953</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.805505</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.194495</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.583827</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.416173</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.866608</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.133392</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.683536</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.316464</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.658213</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.785403</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-16T19:30:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Спартак</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>897865</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897865.html</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.579904</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.21875</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.389952</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.159375</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.679904</v>
-      </c>
-      <c r="N8" t="n">
-        <v>29.315697</v>
-      </c>
-      <c r="O8" t="n">
-        <v>36.075524</v>
-      </c>
-      <c r="P8" t="n">
-        <v>65.391221</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.024741</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.597759</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.134552</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.261647</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.057255</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.936703</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.128506</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.865452</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.236086</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.757873</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.371444</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.622514</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.517425</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.476533</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.933157</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.066843</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.81366</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.18634</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.823425</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.176575</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.611553</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.388447</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.83849</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.543736</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-16T19:30:00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>СКА</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Драконы</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>897870</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897870.html</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.979392</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.257346</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.143498</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.526316</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.252854</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.200422</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5.236738</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32.012917</v>
-      </c>
-      <c r="O9" t="n">
-        <v>29.012809</v>
-      </c>
-      <c r="P9" t="n">
-        <v>61.025726</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.018638</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.049881</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.725148</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.117991</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.152386</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.115106</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.880419</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.228944</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.766581</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.375869</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.619655</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.533895</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.46163</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.679578</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.315947</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.9252860000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.074714</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.796656</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.203344</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.645533</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.354467</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.377399</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.622601</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.920724</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.42033</v>
+        <v>0.866957</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-17T12:15:00</t>
+          <t>2025-12-18T17:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897873</v>
+        <v>897879</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897873.html</t>
+          <t>https://text.khl.ru/text/897879.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4.725</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441115</v>
+        <v>3.748293</v>
       </c>
       <c r="I2" t="n">
-        <v>1.518503</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.771872</v>
+        <v>1.48</v>
       </c>
       <c r="K2" t="n">
-        <v>2.385936</v>
+        <v>3.1025</v>
       </c>
       <c r="L2" t="n">
-        <v>1.479809</v>
+        <v>3.624147</v>
       </c>
       <c r="M2" t="n">
-        <v>2.441115</v>
+        <v>8.473293</v>
       </c>
       <c r="N2" t="n">
-        <v>22.261267</v>
+        <v>31.836521</v>
       </c>
       <c r="O2" t="n">
-        <v>30.06417</v>
+        <v>36.171304</v>
       </c>
       <c r="P2" t="n">
-        <v>52.325437</v>
+        <v>68.007825</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2</v>
+        <v>0.16</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.120511</v>
+        <v>0.099772</v>
       </c>
       <c r="S2" t="n">
-        <v>0.576651</v>
+        <v>0.344335</v>
       </c>
       <c r="T2" t="n">
-        <v>0.192334</v>
+        <v>0.154061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.230974</v>
+        <v>0.49988</v>
       </c>
       <c r="V2" t="n">
-        <v>0.460129</v>
+        <v>0.097176</v>
       </c>
       <c r="W2" t="n">
-        <v>0.53983</v>
+        <v>0.901099</v>
       </c>
       <c r="X2" t="n">
-        <v>0.655046</v>
+        <v>0.19942</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.344913</v>
+        <v>0.798856</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.805746</v>
+        <v>0.336972</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.194213</v>
+        <v>0.661304</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.90284</v>
+        <v>0.491182</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.097118</v>
+        <v>0.507093</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.956461</v>
+        <v>0.63937</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.043498</v>
+        <v>0.358905</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.688484</v>
+        <v>0.815647</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.311516</v>
+        <v>0.184353</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.426613</v>
+        <v>0.599378</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.573387</v>
+        <v>0.400622</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.435394</v>
+        <v>0.876665</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.5646060000000001</v>
+        <v>0.123335</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.186102</v>
+        <v>0.701506</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.813898</v>
+        <v>0.298494</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.898269</v>
+        <v>0.651934</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.631757</v>
+        <v>0.785379</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,663 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00</t>
+          <t>2025-12-18T19:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897874</v>
+        <v>897876</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897874.html</t>
+          <t>https://text.khl.ru/text/897876.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.1875</v>
+        <v>3.591304</v>
       </c>
       <c r="H3" t="n">
-        <v>5.470588</v>
+        <v>5.075</v>
       </c>
       <c r="I3" t="n">
-        <v>1.669894</v>
+        <v>4.504348</v>
       </c>
       <c r="J3" t="n">
-        <v>3.617647</v>
+        <v>3.9375</v>
       </c>
       <c r="K3" t="n">
-        <v>2.402574</v>
+        <v>3.764402</v>
       </c>
       <c r="L3" t="n">
-        <v>3.570241</v>
+        <v>4.789674</v>
       </c>
       <c r="M3" t="n">
-        <v>6.658088</v>
+        <v>8.666304</v>
       </c>
       <c r="N3" t="n">
-        <v>21.617444</v>
+        <v>34.740952</v>
       </c>
       <c r="O3" t="n">
-        <v>40.562341</v>
+        <v>39.952501</v>
       </c>
       <c r="P3" t="n">
-        <v>62.179785</v>
+        <v>74.69345300000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2</v>
+        <v>0.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="S3" t="n">
-        <v>0.244096</v>
+        <v>0.297553</v>
       </c>
       <c r="T3" t="n">
-        <v>0.150405</v>
+        <v>0.13074</v>
       </c>
       <c r="U3" t="n">
-        <v>0.604264</v>
+        <v>0.5596640000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>0.153646</v>
+        <v>0.029002</v>
       </c>
       <c r="W3" t="n">
-        <v>0.845119</v>
+        <v>0.958955</v>
       </c>
       <c r="X3" t="n">
-        <v>0.288712</v>
+        <v>0.072005</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.710053</v>
+        <v>0.915953</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.450056</v>
+        <v>0.145574</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.548709</v>
+        <v>0.842384</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.610669</v>
+        <v>0.25046</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.388096</v>
+        <v>0.737498</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.747714</v>
+        <v>0.378632</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.251051</v>
+        <v>0.609326</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.692119</v>
+        <v>0.889554</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.307881</v>
+        <v>0.110446</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.430963</v>
+        <v>0.725305</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.569037</v>
+        <v>0.274695</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.871352</v>
+        <v>0.951858</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.128648</v>
+        <v>0.048142</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.691949</v>
+        <v>0.856479</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.308051</v>
+        <v>0.143521</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5613629999999999</v>
+        <v>0.566774</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.866957</v>
+        <v>0.799243</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>897877</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897877.html</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.852452</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.846302</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.373399</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.610526</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.231489</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.60985</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.698754</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27.320471</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27.63696</v>
+      </c>
+      <c r="P4" t="n">
+        <v>54.957431</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.051904</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.080709</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.34135</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.184285</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.474253</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.288008</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.71188</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.46876</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.531128</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.643777</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.356111</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.784996</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.214892</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.882666</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.117222</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.65304</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.34696</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.385717</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.614283</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.7345120000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.265488</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.484041</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5159589999999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7028489999999999</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.810061</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897878</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897878.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.285714</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.866667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.766667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.309524</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.952381</v>
+      </c>
+      <c r="N5" t="n">
+        <v>24.837331</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22.434051</v>
+      </c>
+      <c r="P5" t="n">
+        <v>47.271382</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.679401</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.162469</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.157982</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.418729</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5811229999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.613955</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.385897</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.773112</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.22674</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.881237</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.118615</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.055652</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.763185</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.236815</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.522563</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.477437</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.376547</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.623453</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.145086</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.854914</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.937513</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.522518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>897875</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897875.html</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.307876</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.376471</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.393938</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.348235</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.627876</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.935124</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24.347309</v>
+      </c>
+      <c r="P6" t="n">
+        <v>53.282433</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.051254</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.761412</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.125491</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.112298</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.303097</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6961039999999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.486835</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.512366</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.661098</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.338103</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.798829</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.200372</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.892136</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.107065</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.852468</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.147532</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.659089</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.340911</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.390168</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.609832</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.154136</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.8458639999999999</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.955986</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.411692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>897893</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897893.html</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.952203</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.02599</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.895858</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.325136</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.63867</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.960924</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.978193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>32.220977</v>
+      </c>
+      <c r="O7" t="n">
+        <v>30.349418</v>
+      </c>
+      <c r="P7" t="n">
+        <v>62.570395</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.09768499999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.078892</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5289700000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.183607</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.287318</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.325773</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.674122</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.51331</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.486584</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.6858300000000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.314065</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.818083</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.181812</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.904984</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.09490999999999999</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.739994</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.260006</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.491234</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.5087660000000001</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.583314</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.416686</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.312748</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.687252</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.852143</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.658729</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,131 +647,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-18T17:00:00</t>
+          <t>2025-12-19T15:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897879</v>
+        <v>897881</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897879.html</t>
+          <t>https://text.khl.ru/text/897881.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.725</v>
+        <v>1.508387</v>
       </c>
       <c r="H2" t="n">
-        <v>3.748293</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>2.714376</v>
       </c>
       <c r="J2" t="n">
-        <v>1.48</v>
+        <v>3.189495</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1025</v>
+        <v>2.348941</v>
       </c>
       <c r="L2" t="n">
-        <v>3.624147</v>
+        <v>1.957188</v>
       </c>
       <c r="M2" t="n">
-        <v>8.473293</v>
+        <v>2.708387</v>
       </c>
       <c r="N2" t="n">
-        <v>31.836521</v>
+        <v>23.079923</v>
       </c>
       <c r="O2" t="n">
-        <v>36.171304</v>
+        <v>27.688713</v>
       </c>
       <c r="P2" t="n">
-        <v>68.007825</v>
+        <v>50.768635</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.16</v>
+        <v>-0.123842</v>
       </c>
       <c r="R2" t="n">
-        <v>0.099772</v>
+        <v>-0.16</v>
       </c>
       <c r="S2" t="n">
-        <v>0.344335</v>
+        <v>0.474744</v>
       </c>
       <c r="T2" t="n">
-        <v>0.154061</v>
+        <v>0.19579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.49988</v>
+        <v>0.329424</v>
       </c>
       <c r="V2" t="n">
-        <v>0.097176</v>
+        <v>0.376053</v>
       </c>
       <c r="W2" t="n">
-        <v>0.901099</v>
+        <v>0.623905</v>
       </c>
       <c r="X2" t="n">
-        <v>0.19942</v>
+        <v>0.569254</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.798856</v>
+        <v>0.430704</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.336972</v>
+        <v>0.735643</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.661304</v>
+        <v>0.264314</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.491182</v>
+        <v>0.855059</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.507093</v>
+        <v>0.144899</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.63937</v>
+        <v>0.928519</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.358905</v>
+        <v>0.071439</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.815647</v>
+        <v>0.680276</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.184353</v>
+        <v>0.319724</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.599378</v>
+        <v>0.416896</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.400622</v>
+        <v>0.583104</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.876665</v>
+        <v>0.582282</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.123335</v>
+        <v>0.417718</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.701506</v>
+        <v>0.311737</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.298494</v>
+        <v>0.688263</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.651934</v>
+        <v>0.826691</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.785379</v>
+        <v>0.712628</v>
       </c>
     </row>
     <row r="3">
@@ -780,56 +780,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-18T19:00:00</t>
+          <t>2025-12-19T17:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897876</v>
+        <v>897883</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897876.html</t>
+          <t>https://text.khl.ru/text/897883.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.591304</v>
+        <v>5.211111</v>
       </c>
       <c r="H3" t="n">
-        <v>5.075</v>
+        <v>5.288889</v>
       </c>
       <c r="I3" t="n">
-        <v>4.504348</v>
+        <v>4.317177</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9375</v>
+        <v>2.559277</v>
       </c>
       <c r="K3" t="n">
-        <v>3.764402</v>
+        <v>3.885194</v>
       </c>
       <c r="L3" t="n">
-        <v>4.789674</v>
+        <v>4.803033</v>
       </c>
       <c r="M3" t="n">
-        <v>8.666304</v>
+        <v>10.5</v>
       </c>
       <c r="N3" t="n">
-        <v>34.740952</v>
+        <v>35.630589</v>
       </c>
       <c r="O3" t="n">
-        <v>39.952501</v>
+        <v>36.669117</v>
       </c>
       <c r="P3" t="n">
-        <v>74.69345300000001</v>
+        <v>72.299707</v>
       </c>
       <c r="Q3" t="n">
         <v>0.16</v>
@@ -838,73 +838,73 @@
         <v>0.16</v>
       </c>
       <c r="S3" t="n">
-        <v>0.297553</v>
+        <v>0.311429</v>
       </c>
       <c r="T3" t="n">
-        <v>0.13074</v>
+        <v>0.131284</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5596640000000001</v>
+        <v>0.544567</v>
       </c>
       <c r="V3" t="n">
-        <v>0.029002</v>
+        <v>0.026419</v>
       </c>
       <c r="W3" t="n">
-        <v>0.958955</v>
+        <v>0.960861</v>
       </c>
       <c r="X3" t="n">
-        <v>0.072005</v>
+        <v>0.066438</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.915953</v>
+        <v>0.920842</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.145574</v>
+        <v>0.135977</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.842384</v>
+        <v>0.851303</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.25046</v>
+        <v>0.236671</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.737498</v>
+        <v>0.750609</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.378632</v>
+        <v>0.36165</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.609326</v>
+        <v>0.625629</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.889554</v>
+        <v>0.899639</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.110446</v>
+        <v>0.100361</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.725305</v>
+        <v>0.744587</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.274695</v>
+        <v>0.255413</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.951858</v>
+        <v>0.952387</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.048142</v>
+        <v>0.047613</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.856479</v>
+        <v>0.857748</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.143521</v>
+        <v>0.142252</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.566774</v>
+        <v>0.579935</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.799243</v>
+        <v>0.78685</v>
       </c>
     </row>
     <row r="4">
@@ -913,530 +913,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-18T19:00:00</t>
+          <t>2025-12-19T19:30:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897877</v>
+        <v>897882</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897877.html</t>
+          <t>https://text.khl.ru/text/897882.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.852452</v>
+        <v>2.820256</v>
       </c>
       <c r="H4" t="n">
-        <v>2.846302</v>
+        <v>1.389474</v>
       </c>
       <c r="I4" t="n">
-        <v>2.373399</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.610526</v>
+        <v>3.916575</v>
       </c>
       <c r="K4" t="n">
-        <v>2.231489</v>
+        <v>3.368416</v>
       </c>
       <c r="L4" t="n">
-        <v>2.60985</v>
+        <v>2.644737</v>
       </c>
       <c r="M4" t="n">
-        <v>5.698754</v>
+        <v>4.20973</v>
       </c>
       <c r="N4" t="n">
-        <v>27.320471</v>
+        <v>31.730456</v>
       </c>
       <c r="O4" t="n">
-        <v>27.63696</v>
+        <v>25.059845</v>
       </c>
       <c r="P4" t="n">
-        <v>54.957431</v>
+        <v>56.790301</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.051904</v>
+        <v>-0.014794</v>
       </c>
       <c r="R4" t="n">
-        <v>0.080709</v>
+        <v>-0.16</v>
       </c>
       <c r="S4" t="n">
-        <v>0.34135</v>
+        <v>0.533076</v>
       </c>
       <c r="T4" t="n">
-        <v>0.184285</v>
+        <v>0.159959</v>
       </c>
       <c r="U4" t="n">
-        <v>0.474253</v>
+        <v>0.306113</v>
       </c>
       <c r="V4" t="n">
-        <v>0.288008</v>
+        <v>0.150034</v>
       </c>
       <c r="W4" t="n">
-        <v>0.71188</v>
+        <v>0.849113</v>
       </c>
       <c r="X4" t="n">
-        <v>0.46876</v>
+        <v>0.2833</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.531128</v>
+        <v>0.715848</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.643777</v>
+        <v>0.443569</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.356111</v>
+        <v>0.555578</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.784996</v>
+        <v>0.60419</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.214892</v>
+        <v>0.394957</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.882666</v>
+        <v>0.742167</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.117222</v>
+        <v>0.256981</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.65304</v>
+        <v>0.849534</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.34696</v>
+        <v>0.150466</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.385717</v>
+        <v>0.654128</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.614283</v>
+        <v>0.345872</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7345120000000001</v>
+        <v>0.741136</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.265488</v>
+        <v>0.258864</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.484041</v>
+        <v>0.492743</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5159589999999999</v>
+        <v>0.507257</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7028489999999999</v>
+        <v>0.822283</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.810061</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-18T19:00:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>897878</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897878.html</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.285714</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.333333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.866667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.766667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.309524</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.952381</v>
-      </c>
-      <c r="N5" t="n">
-        <v>24.837331</v>
-      </c>
-      <c r="O5" t="n">
-        <v>22.434051</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47.271382</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.679401</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.162469</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.157982</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.418729</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.5811229999999999</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.613955</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.385897</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.773112</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.22674</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.881237</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.118615</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.9442</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.055652</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.763185</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.236815</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.522563</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.477437</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.376547</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.623453</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.145086</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.854914</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.937513</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.522518</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-18T19:30:00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Барыс</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>897875</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897875.html</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.307876</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.376471</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.393938</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.348235</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.627876</v>
-      </c>
-      <c r="N6" t="n">
-        <v>28.935124</v>
-      </c>
-      <c r="O6" t="n">
-        <v>24.347309</v>
-      </c>
-      <c r="P6" t="n">
-        <v>53.282433</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.051254</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.761412</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.125491</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.112298</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.303097</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.6961039999999999</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.486835</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.512366</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.661098</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.338103</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.798829</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.200372</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.892136</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.107065</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.852468</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.147532</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.659089</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.340911</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.390168</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.609832</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.154136</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.8458639999999999</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.955986</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.411692</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-18T19:30:00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>СКА</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ак Барс</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>897893</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897893.html</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.952203</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.02599</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.895858</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.325136</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.63867</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.960924</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5.978193</v>
-      </c>
-      <c r="N7" t="n">
-        <v>32.220977</v>
-      </c>
-      <c r="O7" t="n">
-        <v>30.349418</v>
-      </c>
-      <c r="P7" t="n">
-        <v>62.570395</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.09768499999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.078892</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.5289700000000001</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.183607</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.287318</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.325773</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.674122</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.51331</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.486584</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.6858300000000001</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.314065</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.818083</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.181812</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.904984</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.09490999999999999</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.739994</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.260006</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.491234</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.5087660000000001</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.583314</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.416686</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.312748</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.687252</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.852143</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.658729</v>
+        <v>0.630687</v>
       </c>
     </row>
   </sheetData>

--- a/khl/khl_probabilities_tour.xlsx
+++ b/khl/khl_probabilities_tour.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-19T15:30:00</t>
+          <t>2025-12-21T13:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -657,121 +657,121 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>897881</v>
+        <v>897889</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897881.html</t>
+          <t>https://text.khl.ru/text/897889.html</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.508387</v>
+        <v>2.119583</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2</v>
+        <v>1.566641</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714376</v>
+        <v>3.547501</v>
       </c>
       <c r="J2" t="n">
-        <v>3.189495</v>
+        <v>4.529412</v>
       </c>
       <c r="K2" t="n">
-        <v>2.348941</v>
+        <v>3.324498</v>
       </c>
       <c r="L2" t="n">
-        <v>1.957188</v>
+        <v>2.557071</v>
       </c>
       <c r="M2" t="n">
-        <v>2.708387</v>
+        <v>3.686225</v>
       </c>
       <c r="N2" t="n">
-        <v>23.079923</v>
+        <v>30.079763</v>
       </c>
       <c r="O2" t="n">
-        <v>27.688713</v>
+        <v>27.002774</v>
       </c>
       <c r="P2" t="n">
-        <v>50.768635</v>
+        <v>57.082537</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.123842</v>
+        <v>-0.012706</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.16</v>
+        <v>-0.133671</v>
       </c>
       <c r="S2" t="n">
-        <v>0.474744</v>
+        <v>0.540635</v>
       </c>
       <c r="T2" t="n">
-        <v>0.19579</v>
+        <v>0.160882</v>
       </c>
       <c r="U2" t="n">
-        <v>0.329424</v>
+        <v>0.297732</v>
       </c>
       <c r="V2" t="n">
-        <v>0.376053</v>
+        <v>0.162089</v>
       </c>
       <c r="W2" t="n">
-        <v>0.623905</v>
+        <v>0.837159</v>
       </c>
       <c r="X2" t="n">
-        <v>0.569254</v>
+        <v>0.301222</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.430704</v>
+        <v>0.698026</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.735643</v>
+        <v>0.464885</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.264314</v>
+        <v>0.534363</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.855059</v>
+        <v>0.625318</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.144899</v>
+        <v>0.37393</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.928519</v>
+        <v>0.760118</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.071439</v>
+        <v>0.23913</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.680276</v>
+        <v>0.844359</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.319724</v>
+        <v>0.155641</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.416896</v>
+        <v>0.64547</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.583104</v>
+        <v>0.35453</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.582282</v>
+        <v>0.7242150000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.417718</v>
+        <v>0.275785</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.311737</v>
+        <v>0.470741</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.688263</v>
+        <v>0.529259</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.826691</v>
+        <v>0.829865</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.712628</v>
+        <v>0.625482</v>
       </c>
     </row>
     <row r="3">
@@ -780,131 +780,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-19T17:00:00</t>
+          <t>2025-12-21T15:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>897883</v>
+        <v>897887</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897883.html</t>
+          <t>https://text.khl.ru/text/897887.html</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.211111</v>
+        <v>4.694118</v>
       </c>
       <c r="H3" t="n">
-        <v>5.288889</v>
+        <v>1.233333</v>
       </c>
       <c r="I3" t="n">
-        <v>4.317177</v>
+        <v>3.458824</v>
       </c>
       <c r="J3" t="n">
-        <v>2.559277</v>
+        <v>3.167914</v>
       </c>
       <c r="K3" t="n">
-        <v>3.885194</v>
+        <v>3.931016</v>
       </c>
       <c r="L3" t="n">
-        <v>4.803033</v>
+        <v>2.346078</v>
       </c>
       <c r="M3" t="n">
-        <v>10.5</v>
+        <v>5.927451</v>
       </c>
       <c r="N3" t="n">
-        <v>35.630589</v>
+        <v>31.854488</v>
       </c>
       <c r="O3" t="n">
-        <v>36.669117</v>
+        <v>26.681133</v>
       </c>
       <c r="P3" t="n">
-        <v>72.299707</v>
+        <v>58.535621</v>
       </c>
       <c r="Q3" t="n">
         <v>0.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0.16</v>
+        <v>-0.16</v>
       </c>
       <c r="S3" t="n">
-        <v>0.311429</v>
+        <v>0.663741</v>
       </c>
       <c r="T3" t="n">
-        <v>0.131284</v>
+        <v>0.135116</v>
       </c>
       <c r="U3" t="n">
-        <v>0.544567</v>
+        <v>0.198614</v>
       </c>
       <c r="V3" t="n">
-        <v>0.026419</v>
+        <v>0.128137</v>
       </c>
       <c r="W3" t="n">
-        <v>0.960861</v>
+        <v>0.869335</v>
       </c>
       <c r="X3" t="n">
-        <v>0.066438</v>
+        <v>0.249676</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.920842</v>
+        <v>0.747796</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.135977</v>
+        <v>0.402259</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.851303</v>
+        <v>0.595213</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.236671</v>
+        <v>0.5618880000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.750609</v>
+        <v>0.435584</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.36165</v>
+        <v>0.705031</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.625629</v>
+        <v>0.29244</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.899639</v>
+        <v>0.903235</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.100361</v>
+        <v>0.096765</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.744587</v>
+        <v>0.751613</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.255413</v>
+        <v>0.248387</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.952387</v>
+        <v>0.679633</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.047613</v>
+        <v>0.320367</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.857748</v>
+        <v>0.416142</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.142252</v>
+        <v>0.583858</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.579935</v>
+        <v>0.894209</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.78685</v>
+        <v>0.493499</v>
       </c>
     </row>
     <row r="4">
@@ -913,131 +913,397 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-19T19:30:00</t>
+          <t>2025-12-21T15:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>897882</v>
+        <v>897888</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897882.html</t>
+          <t>https://text.khl.ru/text/897888.html</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.820256</v>
+        <v>1.657143</v>
       </c>
       <c r="H4" t="n">
-        <v>1.389474</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>2.613665</v>
       </c>
       <c r="J4" t="n">
-        <v>3.916575</v>
+        <v>5.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.368416</v>
+        <v>3.803571</v>
       </c>
       <c r="L4" t="n">
-        <v>2.644737</v>
+        <v>1.906832</v>
       </c>
       <c r="M4" t="n">
-        <v>4.20973</v>
+        <v>2.857143</v>
       </c>
       <c r="N4" t="n">
-        <v>31.730456</v>
+        <v>26.696492</v>
       </c>
       <c r="O4" t="n">
-        <v>25.059845</v>
+        <v>24.465028</v>
       </c>
       <c r="P4" t="n">
-        <v>56.790301</v>
+        <v>51.161521</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.014794</v>
+        <v>-0.16</v>
       </c>
       <c r="R4" t="n">
         <v>-0.16</v>
       </c>
       <c r="S4" t="n">
-        <v>0.533076</v>
+        <v>0.7183659999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.159959</v>
+        <v>0.127573</v>
       </c>
       <c r="U4" t="n">
-        <v>0.306113</v>
+        <v>0.152113</v>
       </c>
       <c r="V4" t="n">
-        <v>0.150034</v>
+        <v>0.178976</v>
       </c>
       <c r="W4" t="n">
-        <v>0.849113</v>
+        <v>0.819076</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2833</v>
+        <v>0.325686</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.715848</v>
+        <v>0.672366</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.443569</v>
+        <v>0.493241</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.555578</v>
+        <v>0.504811</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.60419</v>
+        <v>0.652708</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.394957</v>
+        <v>0.345344</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.742167</v>
+        <v>0.782797</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.256981</v>
+        <v>0.215255</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.849534</v>
+        <v>0.892923</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.150466</v>
+        <v>0.107077</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.654128</v>
+        <v>0.73168</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.345872</v>
+        <v>0.26832</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.741136</v>
+        <v>0.56819</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.258864</v>
+        <v>0.43181</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.492743</v>
+        <v>0.298125</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.507257</v>
+        <v>0.701875</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.822283</v>
+        <v>0.927381</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.630687</v>
+        <v>0.442138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-21T17:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>897891</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897891.html</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.097291</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.212037</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.517647</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.466667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.281979</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.864842</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.309328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>27.052298</v>
+      </c>
+      <c r="O5" t="n">
+        <v>31.127614</v>
+      </c>
+      <c r="P5" t="n">
+        <v>58.179911</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.012972</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09715799999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.313238</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.175449</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.511087</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.245018</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.754756</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.41512</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.584654</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.590217</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.409557</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.740415</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.259359</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.85085</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.148924</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.664969</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.335031</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.399177</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.600823</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.779734</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.220266</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.545858</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.454142</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.664817</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.826832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-21T17:10:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>897890</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897890.html</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.161709</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.880855</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>41.531495</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21.68186</v>
+      </c>
+      <c r="P6" t="n">
+        <v>63.213355</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.897023</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.054868</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.036448</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.142428</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.845911</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.271784</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.716556</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.429619</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.55872</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.590108</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.398232</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.729982</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.258358</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.955361</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.044639</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.8649480000000001</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.135052</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.344589</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.655411</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.124879</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.875121</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.97632</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.189048</v>
       </c>
     </row>
   </sheetData>
